--- a/bin/Equipment Traceability.xlsx
+++ b/bin/Equipment Traceability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyonai\Documents\GitHub\Baseline-Check\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49D2268-4624-44D5-84F5-6AA00A8AFE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FA223-FAB9-4905-8784-7FD90D26D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="51870" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="658">
   <si>
     <t>Patch Unit</t>
   </si>
@@ -2029,6 +2029,15 @@
   </si>
   <si>
     <t>Recording System</t>
+  </si>
+  <si>
+    <t>CP-4458-07F_CFI 9</t>
+  </si>
+  <si>
+    <t>Pacer Type</t>
+  </si>
+  <si>
+    <t>Pacer Serial Number</t>
   </si>
 </sst>
 </file>
@@ -2895,6 +2904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2904,12 +2916,12 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2925,120 +2937,120 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3050,9 +3062,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3404,7 +3413,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -3423,18 +3432,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="44" t="s">
@@ -4257,12 +4266,12 @@
       <c r="F41" s="66"/>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
-      <c r="M41" s="87" t="s">
+      <c r="M41" s="88" t="s">
         <v>584</v>
       </c>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
     </row>
     <row r="42" spans="1:17" ht="14.4">
       <c r="A42" s="66"/>
@@ -4523,25 +4532,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
     </row>
     <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="40" t="s">
@@ -4813,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862B71AC-4844-4212-8571-242447F6BD8F}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" activeCellId="1" sqref="F8 L17"/>
     </sheetView>
   </sheetViews>
@@ -4825,18 +4834,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="F1" s="96" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="F1" s="100" t="s">
         <v>521</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="40" t="s">
@@ -4903,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B33D2A6-4CFD-4DE8-AF6E-58921D3DF7AE}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4914,7 +4923,7 @@
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6145,7 +6154,7 @@
         <v>218</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>32</v>
+        <v>655</v>
       </c>
       <c r="E41" s="65" t="s">
         <v>173</v>
@@ -6169,7 +6178,25 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="14.4">
+      <c r="A42" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>613</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>614</v>
+      </c>
       <c r="W42" s="15"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -6500,26 +6527,26 @@
       <c r="AE71" s="3"/>
     </row>
     <row r="72" spans="23:31">
-      <c r="W72" s="91"/>
-      <c r="X72" s="93"/>
-      <c r="Y72" s="93"/>
+      <c r="W72" s="92"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
       <c r="Z72" s="18"/>
-      <c r="AA72" s="93"/>
-      <c r="AB72" s="93"/>
-      <c r="AC72" s="95"/>
-      <c r="AD72" s="89"/>
-      <c r="AE72" s="89"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="94"/>
+      <c r="AC72" s="96"/>
+      <c r="AD72" s="91"/>
+      <c r="AE72" s="91"/>
     </row>
     <row r="73" spans="23:31">
-      <c r="W73" s="92"/>
-      <c r="X73" s="94"/>
-      <c r="Y73" s="94"/>
+      <c r="W73" s="93"/>
+      <c r="X73" s="95"/>
+      <c r="Y73" s="95"/>
       <c r="Z73" s="19"/>
-      <c r="AA73" s="94"/>
-      <c r="AB73" s="94"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="89"/>
-      <c r="AE73" s="89"/>
+      <c r="AA73" s="95"/>
+      <c r="AB73" s="95"/>
+      <c r="AC73" s="96"/>
+      <c r="AD73" s="91"/>
+      <c r="AE73" s="91"/>
     </row>
     <row r="74" spans="23:31">
       <c r="W74" s="15"/>
@@ -9048,21 +9075,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="122"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="79"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
-      <c r="M1" s="123" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="M1" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="2:17" ht="15.6">
       <c r="B2" s="30" t="s">
@@ -9076,12 +9103,12 @@
       <c r="H2" s="33"/>
       <c r="J2" s="30"/>
       <c r="K2" s="33"/>
-      <c r="M2" s="127" t="s">
+      <c r="M2" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="2:17" ht="15.6">
       <c r="G3" s="34"/>
@@ -9128,43 +9155,43 @@
       <c r="D5" s="41"/>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="104" t="s">
+      <c r="P5" s="107" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="M6" s="101"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="105"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="2:17" ht="13.95" customHeight="1">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="79"/>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="98"/>
+      <c r="J7" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="106"/>
+      <c r="K7" s="98"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="133"/>
     </row>
     <row r="8" spans="2:17" ht="46.8">
       <c r="B8" s="30" t="s">
@@ -9250,13 +9277,13 @@
       <c r="K10" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="O10" s="114" t="s">
         <v>165</v>
       </c>
       <c r="P10" s="70" t="s">
@@ -9277,9 +9304,9 @@
       <c r="K11" s="77" t="s">
         <v>447</v>
       </c>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="132"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:17" ht="13.95" customHeight="1">
@@ -9294,16 +9321,16 @@
       <c r="K12" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="M12" s="100" t="s">
+      <c r="M12" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="N12" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="97" t="s">
+      <c r="O12" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="P12" s="104" t="s">
+      <c r="P12" s="107" t="s">
         <v>356</v>
       </c>
       <c r="Q12" s="74" t="s">
@@ -9324,10 +9351,10 @@
       <c r="K13" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="M13" s="101"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="105"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="108"/>
       <c r="Q13" s="75" t="s">
         <v>349</v>
       </c>
@@ -9345,10 +9372,10 @@
       <c r="K14" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="105"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="108"/>
       <c r="Q14" s="75" t="s">
         <v>350</v>
       </c>
@@ -9362,10 +9389,10 @@
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="130"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="75" t="s">
         <v>351</v>
       </c>
@@ -9375,18 +9402,18 @@
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="16.2" thickBot="1">
-      <c r="M17" s="124" t="s">
+      <c r="M17" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
     </row>
     <row r="18" spans="1:16" ht="15.6">
-      <c r="G18" s="121" t="s">
+      <c r="G18" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="122"/>
+      <c r="H18" s="98"/>
       <c r="M18" s="58" t="s">
         <v>28</v>
       </c>
@@ -9421,33 +9448,33 @@
       <c r="H20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="107" t="s">
+      <c r="M20" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="113"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="120"/>
     </row>
     <row r="21" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M21" s="108"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="114"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="121"/>
     </row>
     <row r="22" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M22" s="109"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="115"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="134"/>
     </row>
     <row r="23" spans="1:16" ht="15.6">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="100" t="s">
         <v>602</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="81"/>
       <c r="M23" s="60" t="s">
         <v>89</v>
@@ -9496,13 +9523,13 @@
         <v>414</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="M25" s="107" t="s">
+      <c r="M25" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="110" t="s">
+      <c r="N25" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="117"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" ht="13.95" customHeight="1">
@@ -9522,9 +9549,9 @@
         <v>590</v>
       </c>
       <c r="F26" s="80"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="118"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="128"/>
       <c r="P26" s="64"/>
     </row>
     <row r="27" spans="1:16" ht="13.95" customHeight="1">
@@ -9544,14 +9571,14 @@
         <v>589</v>
       </c>
       <c r="F27" s="80"/>
-      <c r="M27" s="107" t="s">
+      <c r="M27" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="110" t="s">
+      <c r="N27" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="110"/>
-      <c r="P27" s="113"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="120"/>
     </row>
     <row r="28" spans="1:16" ht="13.95" customHeight="1">
       <c r="A28" s="41" t="s">
@@ -9570,10 +9597,10 @@
         <v>591</v>
       </c>
       <c r="F28" s="80"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="114"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="121"/>
     </row>
     <row r="29" spans="1:16" ht="13.95" customHeight="1">
       <c r="A29" s="41" t="s">
@@ -9592,10 +9619,10 @@
         <v>592</v>
       </c>
       <c r="F29" s="80"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="114"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="121"/>
     </row>
     <row r="30" spans="1:16" ht="14.4" customHeight="1" thickBot="1">
       <c r="A30" s="41" t="s">
@@ -9614,10 +9641,10 @@
         <v>593</v>
       </c>
       <c r="F30" s="80"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="116"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="122"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="41" t="s">
@@ -9851,6 +9878,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M1:P1"/>
@@ -9867,23 +9911,6 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10155,7 +10182,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10172,29 +10199,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="100"/>
+      <c r="D1" s="100" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="100"/>
+      <c r="G1" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="J1" s="96" t="s">
+      <c r="H1" s="100"/>
+      <c r="J1" s="100" t="s">
         <v>588</v>
       </c>
-      <c r="K1" s="96"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="40" t="s">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>638</v>
@@ -10323,7 +10350,12 @@
       <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="14.4">
-      <c r="A10" s="78"/>
+      <c r="A10" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="78">
+        <v>450640112</v>
+      </c>
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
@@ -10612,17 +10644,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15.6">
@@ -10658,7 +10690,7 @@
       <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="86" t="s">
         <v>649</v>
       </c>
       <c r="D3" t="s">
@@ -10678,7 +10710,7 @@
       <c r="A4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="86" t="s">
         <v>650</v>
       </c>
       <c r="D4" t="s">
@@ -10724,10 +10756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="136"/>
     </row>
     <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="55" t="s">
@@ -10856,10 +10888,10 @@
       <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" ht="15.6" customHeight="1">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="138"/>
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="57" t="s">

--- a/bin/Equipment Traceability.xlsx
+++ b/bin/Equipment Traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyonai\Documents\GitHub\Baseline-Check\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eranyonai/Documents/GitHub/Baseline-Check/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FA223-FAB9-4905-8784-7FD90D26D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EAD952-E66C-3B40-89C5-74CE2F951D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="51870" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34420" yWindow="560" windowWidth="34320" windowHeight="28180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="661">
   <si>
     <t>Patch Unit</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Systems:</t>
   </si>
   <si>
-    <t>Catalog Number</t>
-  </si>
-  <si>
     <t>Dongles:</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>Video Cable</t>
   </si>
   <si>
-    <t>Ethernet Cables</t>
-  </si>
-  <si>
     <t>CW-4163-01N</t>
   </si>
   <si>
@@ -352,33 +346,15 @@
     <t>VC10A</t>
   </si>
   <si>
-    <t>Siemens ACUSON SC2000</t>
-  </si>
-  <si>
-    <t>Siemens ACUSON X700:</t>
-  </si>
-  <si>
-    <t>Siemens ACUSON X300:</t>
-  </si>
-  <si>
     <t>VB20E-2.0.04(0041)</t>
   </si>
   <si>
-    <t>PP1014, PP0008</t>
-  </si>
-  <si>
     <t>7.5.06 (3748)</t>
   </si>
   <si>
-    <t>Siemens ACUSON P500</t>
-  </si>
-  <si>
     <t xml:space="preserve">VB10E (2.0.18) </t>
   </si>
   <si>
-    <t>GE Vivid™ Q</t>
-  </si>
-  <si>
     <t>20145VQ</t>
   </si>
   <si>
@@ -998,9 +974,6 @@
   </si>
   <si>
     <t>B006388</t>
-  </si>
-  <si>
-    <t>M007905</t>
   </si>
   <si>
     <t>BI2444</t>
@@ -2038,6 +2011,42 @@
   </si>
   <si>
     <t>Pacer Serial Number</t>
+  </si>
+  <si>
+    <t>M007906</t>
+  </si>
+  <si>
+    <t>PP0008</t>
+  </si>
+  <si>
+    <t>PP1014</t>
+  </si>
+  <si>
+    <t>Software Version</t>
+  </si>
+  <si>
+    <t>Siemens Acuson SC2000</t>
+  </si>
+  <si>
+    <t>Siemens Acuson P500</t>
+  </si>
+  <si>
+    <t>Siemens Acuson X700</t>
+  </si>
+  <si>
+    <t>Siemens Acuson X300</t>
+  </si>
+  <si>
+    <t>Catheters Catalog Number</t>
+  </si>
+  <si>
+    <t>Extenders Catalog Number</t>
+  </si>
+  <si>
+    <t>Printer Serial Number</t>
+  </si>
+  <si>
+    <t>GE Vivid Q</t>
   </si>
 </sst>
 </file>
@@ -2051,14 +2060,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2066,7 +2075,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2074,7 +2083,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2088,7 +2097,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2117,7 +2126,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -2129,21 +2138,21 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2156,7 +2165,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2937,6 +2946,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2946,9 +3030,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2967,89 +3048,17 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3413,22 +3422,22 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.09765625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="43" customWidth="1"/>
     <col min="9" max="9" width="15" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="43"/>
+    <col min="10" max="10" width="24.1640625" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3445,12 +3454,12 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="44" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>0</v>
@@ -3462,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>3</v>
@@ -3474,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>4</v>
@@ -3488,19 +3497,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I3" s="67">
         <v>44468</v>
@@ -3517,22 +3526,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D4" s="66">
         <v>900</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I4" s="67">
         <v>44473</v>
@@ -3549,19 +3558,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I5" s="67">
         <v>44268</v>
@@ -3572,25 +3581,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="66" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6" s="66">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="72" t="s">
@@ -3599,30 +3608,30 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="66" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B7" s="66">
         <v>5</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="72"/>
       <c r="K7" s="43" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3633,19 +3642,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I8" s="66">
         <v>44360</v>
@@ -3662,19 +3671,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I9" s="66">
         <v>44552</v>
@@ -3685,25 +3694,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="66" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B10" s="66">
         <v>4</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I10" s="66">
         <v>44343</v>
@@ -3720,19 +3729,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I11" s="66"/>
       <c r="J11" s="72" t="s">
@@ -3747,19 +3756,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>320</v>
+        <v>649</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I12" s="66"/>
       <c r="J12" s="72" t="s">
@@ -3768,25 +3777,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="66" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B13" s="66">
         <v>4</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F13" s="66">
         <v>12101290</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I13" s="66"/>
       <c r="J13" s="72" t="s">
@@ -3801,19 +3810,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E14" s="66" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I14" s="66">
         <v>44375</v>
@@ -3830,187 +3839,187 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="66" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B16" s="66">
         <v>4</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H16" s="66" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="66" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B17" s="66">
         <v>4</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="66" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B18" s="66">
         <v>4</v>
       </c>
       <c r="C18" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" s="66" t="s">
         <v>395</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="66" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B19" s="66">
         <v>4</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="66" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B20" s="66">
         <v>4</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="66" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B21" s="66">
         <v>4</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E21" s="66">
         <v>1095</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="66" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B22" s="66">
         <v>4</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I22" s="66"/>
     </row>
@@ -4022,43 +4031,43 @@
         <v>4</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E23" s="66">
         <v>8408</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="66" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B24" s="66">
         <v>4</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -4073,31 +4082,31 @@
         <v>4357</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="I25" s="66"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="66" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B26" s="66">
         <v>2</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -4106,25 +4115,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="66" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B27" s="66">
         <v>4</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I27" s="66"/>
     </row>
@@ -4136,19 +4145,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="I28" s="66"/>
     </row>
@@ -4267,13 +4276,13 @@
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="M41" s="88" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
       <c r="P41" s="89"/>
     </row>
-    <row r="42" spans="1:17" ht="14.4">
+    <row r="42" spans="1:17">
       <c r="A42" s="66"/>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
@@ -4282,7 +4291,7 @@
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="M42" s="65" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4294,16 +4303,16 @@
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
       <c r="M43" s="66" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="N43" s="66" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O43" s="66">
         <v>2</v>
       </c>
       <c r="P43" s="66" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="Q43" s="66"/>
     </row>
@@ -4515,298 +4524,298 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+    </row>
+    <row r="2" spans="1:17" ht="16">
+      <c r="A2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6">
-      <c r="A2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="M2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>641</v>
-      </c>
-      <c r="G2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="Q2" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="B3" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="C3" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="D3" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="E3" s="65" t="s">
         <v>184</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.4">
-      <c r="A3" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>192</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="P3" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="Q3" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.4">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="P4" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="Q4" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.4">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="65" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="P5" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="Q5" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q5" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="14.4">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="65" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="P6" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="Q6" s="65" t="s">
         <v>195</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q6" s="65" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4826,68 +4835,68 @@
       <selection activeCell="L17" activeCellId="1" sqref="F8 L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="F1" s="97" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="F1" s="100" t="s">
-        <v>521</v>
-      </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4">
-      <c r="A3" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>135</v>
-      </c>
       <c r="F3" s="65" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G3" s="65">
         <v>222</v>
@@ -4896,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4912,19 +4921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B33D2A6-4CFD-4DE8-AF6E-58921D3DF7AE}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4943,18 +4952,18 @@
       </c>
       <c r="L1" s="90"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -4966,7 +4975,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -4975,498 +4984,498 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F3" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F4" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F5" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F7" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F9" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F10" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F11" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F12" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D15" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F15" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F20" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="14.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F21" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W21" s="90"/>
       <c r="X21" s="90"/>
@@ -5478,30 +5487,30 @@
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
     </row>
-    <row r="22" spans="1:31" ht="15.6">
+    <row r="22" spans="1:31" ht="16">
       <c r="A22" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D22" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F22" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5513,30 +5522,30 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" ht="14.4">
+    <row r="23" spans="1:31">
       <c r="A23" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F23" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W23" s="15"/>
       <c r="X23" s="7"/>
@@ -5548,30 +5557,30 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.4">
+    <row r="24" spans="1:31">
       <c r="A24" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F24" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="7"/>
@@ -5583,30 +5592,30 @@
       <c r="AD24" s="16"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:31" ht="14.4">
+    <row r="25" spans="1:31">
       <c r="A25" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W25" s="15"/>
       <c r="X25" s="7"/>
@@ -5618,30 +5627,30 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.4">
+    <row r="26" spans="1:31">
       <c r="A26" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F26" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H26" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -5653,30 +5662,30 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.4">
+    <row r="27" spans="1:31">
       <c r="A27" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W27" s="15"/>
       <c r="X27" s="7"/>
@@ -5688,30 +5697,30 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.4">
+    <row r="28" spans="1:31">
       <c r="A28" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W28" s="15"/>
       <c r="X28" s="7"/>
@@ -5723,30 +5732,30 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="14.4">
+    <row r="29" spans="1:31">
       <c r="A29" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F29" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="7"/>
@@ -5758,30 +5767,30 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="14.4">
+    <row r="30" spans="1:31">
       <c r="A30" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F30" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="7"/>
@@ -5793,30 +5802,30 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="14.4">
+    <row r="31" spans="1:31">
       <c r="A31" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W31" s="15"/>
       <c r="X31" s="7"/>
@@ -5828,30 +5837,30 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="14.4">
+    <row r="32" spans="1:31">
       <c r="A32" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="7"/>
@@ -5863,30 +5872,30 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" ht="14.4">
+    <row r="33" spans="1:31">
       <c r="A33" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F33" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H33" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W33" s="15"/>
       <c r="X33" s="7"/>
@@ -5898,30 +5907,30 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" ht="14.4">
+    <row r="34" spans="1:31">
       <c r="A34" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H34" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="7"/>
@@ -5933,30 +5942,30 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" ht="14.4">
+    <row r="35" spans="1:31">
       <c r="A35" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B35" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F35" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W35" s="15"/>
       <c r="X35" s="7"/>
@@ -5968,30 +5977,30 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" ht="14.4">
+    <row r="36" spans="1:31">
       <c r="A36" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F36" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W36" s="15"/>
       <c r="X36" s="7"/>
@@ -6003,30 +6012,30 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" ht="14.4">
+    <row r="37" spans="1:31">
       <c r="A37" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F37" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W37" s="15"/>
       <c r="X37" s="7"/>
@@ -6038,30 +6047,30 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" ht="14.4">
+    <row r="38" spans="1:31">
       <c r="A38" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F38" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="7"/>
@@ -6073,30 +6082,30 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" ht="14.4">
+    <row r="39" spans="1:31">
       <c r="A39" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B39" s="65" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F39" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H39" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="7"/>
@@ -6108,30 +6117,30 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" ht="14.4">
+    <row r="40" spans="1:31">
       <c r="A40" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B40" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F40" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H40" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W40" s="15"/>
       <c r="X40" s="7"/>
@@ -6143,30 +6152,30 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="14.4">
+    <row r="41" spans="1:31">
       <c r="A41" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B41" s="65" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F41" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W41" s="15"/>
       <c r="X41" s="7"/>
@@ -6178,24 +6187,24 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="14.4">
+    <row r="42" spans="1:31">
       <c r="A42" s="65" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H42" s="65" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="W42" s="15"/>
       <c r="X42" s="7"/>
@@ -6581,7 +6590,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="23:31" ht="14.4">
+    <row r="77" spans="23:31">
       <c r="W77" s="15"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="7"/>
@@ -6625,7 +6634,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="23:31" ht="14.4">
+    <row r="81" spans="23:31">
       <c r="W81" s="15"/>
       <c r="X81" s="21"/>
       <c r="Y81" s="7"/>
@@ -6691,7 +6700,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="23:31" ht="14.4">
+    <row r="87" spans="23:31">
       <c r="W87" s="15"/>
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
@@ -6900,7 +6909,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="23:31" ht="14.4">
+    <row r="106" spans="23:31">
       <c r="W106" s="7"/>
       <c r="X106" s="27"/>
       <c r="Y106" s="27"/>
@@ -6911,7 +6920,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="23:31" ht="14.4">
+    <row r="107" spans="23:31">
       <c r="W107" s="15"/>
       <c r="X107" s="27"/>
       <c r="Y107" s="27"/>
@@ -6947,177 +6956,177 @@
   <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.8984375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="4.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.69921875" style="12"/>
+    <col min="8" max="8" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="90" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B1" s="90"/>
       <c r="D1" s="90" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E1" s="90"/>
       <c r="G1" s="90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="K1" s="90" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L1" s="90"/>
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="16">
       <c r="A2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="H2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.4">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="65" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M3" s="65">
         <v>1</v>
       </c>
       <c r="N3" s="65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="65" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M4" s="65">
         <v>4</v>
       </c>
       <c r="N4" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="65" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
@@ -7125,33 +7134,33 @@
       <c r="O5" s="65"/>
       <c r="P5" s="65"/>
     </row>
-    <row r="6" spans="1:16" ht="14.4">
+    <row r="6" spans="1:16">
       <c r="A6" s="65" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:16" ht="14.4">
+    <row r="7" spans="1:16">
       <c r="A7" s="65" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -7161,18 +7170,18 @@
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:16" ht="14.4">
+    <row r="8" spans="1:16">
       <c r="A8" s="65" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -7182,18 +7191,18 @@
       <c r="M8" s="65"/>
       <c r="N8" s="65"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4">
+    <row r="9" spans="1:16">
       <c r="A9" s="65" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
@@ -7203,18 +7212,18 @@
       <c r="M9" s="65"/>
       <c r="N9" s="65"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4">
+    <row r="10" spans="1:16">
       <c r="A10" s="65" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
@@ -7224,18 +7233,18 @@
       <c r="M10" s="65"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4">
+    <row r="11" spans="1:16">
       <c r="A11" s="65" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
@@ -7245,18 +7254,18 @@
       <c r="M11" s="65"/>
       <c r="N11" s="65"/>
     </row>
-    <row r="12" spans="1:16" ht="14.4">
+    <row r="12" spans="1:16">
       <c r="A12" s="65" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -7266,18 +7275,18 @@
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4">
+    <row r="13" spans="1:16">
       <c r="A13" s="65" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="65"/>
@@ -7287,18 +7296,18 @@
       <c r="M13" s="65"/>
       <c r="N13" s="65"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4">
+    <row r="14" spans="1:16">
       <c r="A14" s="65" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
@@ -7308,18 +7317,18 @@
       <c r="M14" s="65"/>
       <c r="N14" s="65"/>
     </row>
-    <row r="15" spans="1:16" ht="14.4">
+    <row r="15" spans="1:16">
       <c r="A15" s="65" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
@@ -7329,18 +7338,18 @@
       <c r="M15" s="65"/>
       <c r="N15" s="65"/>
     </row>
-    <row r="16" spans="1:16" ht="14.4">
+    <row r="16" spans="1:16">
       <c r="A16" s="65" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
@@ -7350,18 +7359,18 @@
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
     </row>
-    <row r="17" spans="1:14" ht="14.4">
+    <row r="17" spans="1:14">
       <c r="A17" s="65" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
@@ -7371,18 +7380,18 @@
       <c r="M17" s="65"/>
       <c r="N17" s="65"/>
     </row>
-    <row r="18" spans="1:14" ht="14.4">
+    <row r="18" spans="1:14">
       <c r="A18" s="65" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -7392,18 +7401,18 @@
       <c r="M18" s="65"/>
       <c r="N18" s="65"/>
     </row>
-    <row r="19" spans="1:14" ht="14.4">
+    <row r="19" spans="1:14">
       <c r="A19" s="65" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
@@ -7413,18 +7422,18 @@
       <c r="M19" s="65"/>
       <c r="N19" s="65"/>
     </row>
-    <row r="20" spans="1:14" ht="14.4">
+    <row r="20" spans="1:14">
       <c r="A20" s="65" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
@@ -7434,18 +7443,18 @@
       <c r="M20" s="65"/>
       <c r="N20" s="65"/>
     </row>
-    <row r="21" spans="1:14" ht="14.4">
+    <row r="21" spans="1:14">
       <c r="A21" s="65" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
@@ -7455,18 +7464,18 @@
       <c r="M21" s="65"/>
       <c r="N21" s="65"/>
     </row>
-    <row r="22" spans="1:14" ht="14.4">
+    <row r="22" spans="1:14">
       <c r="A22" s="65" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="65"/>
@@ -7476,18 +7485,18 @@
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
     </row>
-    <row r="23" spans="1:14" ht="14.4">
+    <row r="23" spans="1:14">
       <c r="A23" s="65" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
@@ -7497,18 +7506,18 @@
       <c r="M23" s="65"/>
       <c r="N23" s="65"/>
     </row>
-    <row r="24" spans="1:14" ht="14.4">
+    <row r="24" spans="1:14">
       <c r="A24" s="65" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="65"/>
@@ -7518,18 +7527,18 @@
       <c r="M24" s="65"/>
       <c r="N24" s="65"/>
     </row>
-    <row r="25" spans="1:14" ht="14.4">
+    <row r="25" spans="1:14">
       <c r="A25" s="65" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
@@ -7539,18 +7548,18 @@
       <c r="M25" s="65"/>
       <c r="N25" s="65"/>
     </row>
-    <row r="26" spans="1:14" ht="14.4">
+    <row r="26" spans="1:14">
       <c r="A26" s="65" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
@@ -7560,18 +7569,18 @@
       <c r="M26" s="65"/>
       <c r="N26" s="65"/>
     </row>
-    <row r="27" spans="1:14" ht="14.4">
+    <row r="27" spans="1:14">
       <c r="A27" s="65" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="65"/>
@@ -7581,18 +7590,18 @@
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
     </row>
-    <row r="28" spans="1:14" ht="14.4">
+    <row r="28" spans="1:14">
       <c r="A28" s="65" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
@@ -7602,18 +7611,18 @@
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
     </row>
-    <row r="29" spans="1:14" ht="14.4">
+    <row r="29" spans="1:14">
       <c r="A29" s="65" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
@@ -7623,18 +7632,18 @@
       <c r="M29" s="65"/>
       <c r="N29" s="65"/>
     </row>
-    <row r="30" spans="1:14" ht="14.4">
+    <row r="30" spans="1:14">
       <c r="A30" s="65" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
@@ -7644,12 +7653,12 @@
       <c r="M30" s="65"/>
       <c r="N30" s="65"/>
     </row>
-    <row r="31" spans="1:14" ht="14.4">
+    <row r="31" spans="1:14">
       <c r="A31" s="65" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
@@ -7663,12 +7672,12 @@
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
     </row>
-    <row r="32" spans="1:14" ht="14.4">
+    <row r="32" spans="1:14">
       <c r="A32" s="65" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
@@ -7682,12 +7691,12 @@
       <c r="M32" s="65"/>
       <c r="N32" s="65"/>
     </row>
-    <row r="33" spans="1:14" ht="14.4">
+    <row r="33" spans="1:14">
       <c r="A33" s="65" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
@@ -7701,12 +7710,12 @@
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
     </row>
-    <row r="34" spans="1:14" ht="14.4">
+    <row r="34" spans="1:14">
       <c r="A34" s="65" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
@@ -7720,12 +7729,12 @@
       <c r="M34" s="65"/>
       <c r="N34" s="65"/>
     </row>
-    <row r="35" spans="1:14" ht="14.4">
+    <row r="35" spans="1:14">
       <c r="A35" s="65" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
@@ -7739,12 +7748,12 @@
       <c r="M35" s="65"/>
       <c r="N35" s="65"/>
     </row>
-    <row r="36" spans="1:14" ht="14.4">
+    <row r="36" spans="1:14">
       <c r="A36" s="65" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -7758,12 +7767,12 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
     </row>
-    <row r="37" spans="1:14" ht="14.4">
+    <row r="37" spans="1:14">
       <c r="A37" s="65" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
@@ -7777,12 +7786,12 @@
       <c r="M37" s="65"/>
       <c r="N37" s="65"/>
     </row>
-    <row r="38" spans="1:14" ht="14.4">
+    <row r="38" spans="1:14">
       <c r="A38" s="65" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="65"/>
@@ -7796,12 +7805,12 @@
       <c r="M38" s="65"/>
       <c r="N38" s="65"/>
     </row>
-    <row r="39" spans="1:14" ht="14.4">
+    <row r="39" spans="1:14">
       <c r="A39" s="65" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="65"/>
@@ -7815,12 +7824,12 @@
       <c r="M39" s="65"/>
       <c r="N39" s="65"/>
     </row>
-    <row r="40" spans="1:14" ht="14.4">
+    <row r="40" spans="1:14">
       <c r="A40" s="65" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="65"/>
@@ -7834,12 +7843,12 @@
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
     </row>
-    <row r="41" spans="1:14" ht="14.4">
+    <row r="41" spans="1:14">
       <c r="A41" s="65" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D41" s="65"/>
       <c r="E41" s="65"/>
@@ -7853,12 +7862,12 @@
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
     </row>
-    <row r="42" spans="1:14" ht="14.4">
+    <row r="42" spans="1:14">
       <c r="A42" s="65" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="65"/>
@@ -7872,12 +7881,12 @@
       <c r="M42" s="65"/>
       <c r="N42" s="65"/>
     </row>
-    <row r="43" spans="1:14" ht="14.4">
+    <row r="43" spans="1:14">
       <c r="A43" s="65" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" s="65"/>
@@ -7891,12 +7900,12 @@
       <c r="M43" s="65"/>
       <c r="N43" s="65"/>
     </row>
-    <row r="44" spans="1:14" ht="14.4">
+    <row r="44" spans="1:14">
       <c r="A44" s="65" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="65"/>
@@ -7910,12 +7919,12 @@
       <c r="M44" s="65"/>
       <c r="N44" s="65"/>
     </row>
-    <row r="45" spans="1:14" ht="14.4">
+    <row r="45" spans="1:14">
       <c r="A45" s="65" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="65"/>
@@ -7929,12 +7938,12 @@
       <c r="M45" s="65"/>
       <c r="N45" s="65"/>
     </row>
-    <row r="46" spans="1:14" ht="14.4">
+    <row r="46" spans="1:14">
       <c r="A46" s="65" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D46" s="65"/>
       <c r="E46" s="65"/>
@@ -7948,12 +7957,12 @@
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
     </row>
-    <row r="47" spans="1:14" ht="14.4">
+    <row r="47" spans="1:14">
       <c r="A47" s="65" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" s="65"/>
@@ -7967,12 +7976,12 @@
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
     </row>
-    <row r="48" spans="1:14" ht="14.4">
+    <row r="48" spans="1:14">
       <c r="A48" s="65" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" s="65"/>
@@ -7986,12 +7995,12 @@
       <c r="M48" s="65"/>
       <c r="N48" s="65"/>
     </row>
-    <row r="49" spans="1:14" ht="14.4">
+    <row r="49" spans="1:14">
       <c r="A49" s="65" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D49" s="65"/>
       <c r="E49" s="65"/>
@@ -8005,12 +8014,12 @@
       <c r="M49" s="65"/>
       <c r="N49" s="65"/>
     </row>
-    <row r="50" spans="1:14" ht="14.4">
+    <row r="50" spans="1:14">
       <c r="A50" s="65" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D50" s="65"/>
       <c r="E50" s="65"/>
@@ -8024,12 +8033,12 @@
       <c r="M50" s="65"/>
       <c r="N50" s="65"/>
     </row>
-    <row r="51" spans="1:14" ht="14.4">
+    <row r="51" spans="1:14">
       <c r="A51" s="65" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D51" s="65"/>
       <c r="E51" s="65"/>
@@ -8043,12 +8052,12 @@
       <c r="M51" s="65"/>
       <c r="N51" s="65"/>
     </row>
-    <row r="52" spans="1:14" ht="14.4">
+    <row r="52" spans="1:14">
       <c r="A52" s="65" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" s="65"/>
@@ -8062,12 +8071,12 @@
       <c r="M52" s="65"/>
       <c r="N52" s="65"/>
     </row>
-    <row r="53" spans="1:14" ht="14.4">
+    <row r="53" spans="1:14">
       <c r="A53" s="65" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D53" s="65"/>
       <c r="E53" s="65"/>
@@ -8081,12 +8090,12 @@
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
     </row>
-    <row r="54" spans="1:14" ht="14.4">
+    <row r="54" spans="1:14">
       <c r="A54" s="65" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" s="65"/>
@@ -8100,12 +8109,12 @@
       <c r="M54" s="65"/>
       <c r="N54" s="65"/>
     </row>
-    <row r="55" spans="1:14" ht="14.4">
+    <row r="55" spans="1:14">
       <c r="A55" s="65" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D55" s="65"/>
       <c r="E55" s="65"/>
@@ -8119,12 +8128,12 @@
       <c r="M55" s="65"/>
       <c r="N55" s="65"/>
     </row>
-    <row r="56" spans="1:14" ht="14.4">
+    <row r="56" spans="1:14">
       <c r="A56" s="65" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8138,12 +8147,12 @@
       <c r="M56" s="65"/>
       <c r="N56" s="65"/>
     </row>
-    <row r="57" spans="1:14" ht="14.4">
+    <row r="57" spans="1:14">
       <c r="A57" s="65" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="65"/>
@@ -8157,12 +8166,12 @@
       <c r="M57" s="65"/>
       <c r="N57" s="65"/>
     </row>
-    <row r="58" spans="1:14" ht="14.4">
+    <row r="58" spans="1:14">
       <c r="A58" s="65" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
@@ -8176,12 +8185,12 @@
       <c r="M58" s="65"/>
       <c r="N58" s="65"/>
     </row>
-    <row r="59" spans="1:14" ht="14.4">
+    <row r="59" spans="1:14">
       <c r="A59" s="65" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" s="65"/>
@@ -8195,12 +8204,12 @@
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
     </row>
-    <row r="60" spans="1:14" ht="14.4">
+    <row r="60" spans="1:14">
       <c r="A60" s="65" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
@@ -8214,12 +8223,12 @@
       <c r="M60" s="65"/>
       <c r="N60" s="65"/>
     </row>
-    <row r="61" spans="1:14" ht="14.4">
+    <row r="61" spans="1:14">
       <c r="A61" s="65" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="65"/>
@@ -8233,12 +8242,12 @@
       <c r="M61" s="65"/>
       <c r="N61" s="65"/>
     </row>
-    <row r="62" spans="1:14" ht="14.4">
+    <row r="62" spans="1:14">
       <c r="A62" s="65" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D62" s="65"/>
       <c r="E62" s="65"/>
@@ -8252,12 +8261,12 @@
       <c r="M62" s="65"/>
       <c r="N62" s="65"/>
     </row>
-    <row r="63" spans="1:14" ht="14.4">
+    <row r="63" spans="1:14">
       <c r="A63" s="65" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D63" s="65"/>
       <c r="E63" s="65"/>
@@ -8271,12 +8280,12 @@
       <c r="M63" s="65"/>
       <c r="N63" s="65"/>
     </row>
-    <row r="64" spans="1:14" ht="14.4">
+    <row r="64" spans="1:14">
       <c r="A64" s="65" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D64" s="65"/>
       <c r="E64" s="65"/>
@@ -8290,12 +8299,12 @@
       <c r="M64" s="65"/>
       <c r="N64" s="65"/>
     </row>
-    <row r="65" spans="1:14" ht="14.4">
+    <row r="65" spans="1:14">
       <c r="A65" s="65" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D65" s="65"/>
       <c r="E65" s="65"/>
@@ -8309,12 +8318,12 @@
       <c r="M65" s="65"/>
       <c r="N65" s="65"/>
     </row>
-    <row r="66" spans="1:14" ht="14.4">
+    <row r="66" spans="1:14">
       <c r="A66" s="65" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="65"/>
@@ -8328,12 +8337,12 @@
       <c r="M66" s="65"/>
       <c r="N66" s="65"/>
     </row>
-    <row r="67" spans="1:14" ht="14.4">
+    <row r="67" spans="1:14">
       <c r="A67" s="65" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B67" s="65" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
@@ -8347,12 +8356,12 @@
       <c r="M67" s="65"/>
       <c r="N67" s="65"/>
     </row>
-    <row r="68" spans="1:14" ht="14.4">
+    <row r="68" spans="1:14">
       <c r="A68" s="65" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
@@ -8366,12 +8375,12 @@
       <c r="M68" s="65"/>
       <c r="N68" s="65"/>
     </row>
-    <row r="69" spans="1:14" ht="14.4">
+    <row r="69" spans="1:14">
       <c r="A69" s="65" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D69" s="65"/>
       <c r="E69" s="65"/>
@@ -8385,12 +8394,12 @@
       <c r="M69" s="65"/>
       <c r="N69" s="65"/>
     </row>
-    <row r="70" spans="1:14" ht="14.4">
+    <row r="70" spans="1:14">
       <c r="A70" s="65" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B70" s="65" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" s="65"/>
@@ -8404,12 +8413,12 @@
       <c r="M70" s="65"/>
       <c r="N70" s="65"/>
     </row>
-    <row r="71" spans="1:14" ht="14.4">
+    <row r="71" spans="1:14">
       <c r="A71" s="65" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D71" s="65"/>
       <c r="E71" s="65"/>
@@ -8423,12 +8432,12 @@
       <c r="M71" s="65"/>
       <c r="N71" s="65"/>
     </row>
-    <row r="72" spans="1:14" ht="14.4">
+    <row r="72" spans="1:14">
       <c r="A72" s="65" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" s="65"/>
@@ -8442,12 +8451,12 @@
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
     </row>
-    <row r="73" spans="1:14" ht="14.4">
+    <row r="73" spans="1:14">
       <c r="A73" s="65" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D73" s="65"/>
       <c r="E73" s="65"/>
@@ -8461,12 +8470,12 @@
       <c r="M73" s="65"/>
       <c r="N73" s="65"/>
     </row>
-    <row r="74" spans="1:14" ht="14.4">
+    <row r="74" spans="1:14">
       <c r="A74" s="65" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D74" s="65"/>
       <c r="E74" s="65"/>
@@ -8480,12 +8489,12 @@
       <c r="M74" s="65"/>
       <c r="N74" s="65"/>
     </row>
-    <row r="75" spans="1:14" ht="14.4">
+    <row r="75" spans="1:14">
       <c r="A75" s="65" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B75" s="65" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="65"/>
@@ -8499,12 +8508,12 @@
       <c r="M75" s="65"/>
       <c r="N75" s="65"/>
     </row>
-    <row r="76" spans="1:14" ht="14.4">
+    <row r="76" spans="1:14">
       <c r="A76" s="65" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
@@ -8518,12 +8527,12 @@
       <c r="M76" s="65"/>
       <c r="N76" s="65"/>
     </row>
-    <row r="77" spans="1:14" ht="14.4">
+    <row r="77" spans="1:14">
       <c r="A77" s="65" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B77" s="65" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="65"/>
@@ -8537,12 +8546,12 @@
       <c r="M77" s="65"/>
       <c r="N77" s="65"/>
     </row>
-    <row r="78" spans="1:14" ht="14.4">
+    <row r="78" spans="1:14">
       <c r="A78" s="65" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B78" s="65" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" s="65"/>
@@ -8556,12 +8565,12 @@
       <c r="M78" s="65"/>
       <c r="N78" s="65"/>
     </row>
-    <row r="79" spans="1:14" ht="14.4">
+    <row r="79" spans="1:14">
       <c r="A79" s="65" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B79" s="65" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="65"/>
@@ -8575,12 +8584,12 @@
       <c r="M79" s="65"/>
       <c r="N79" s="65"/>
     </row>
-    <row r="80" spans="1:14" ht="14.4">
+    <row r="80" spans="1:14">
       <c r="A80" s="65" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="65"/>
@@ -8594,12 +8603,12 @@
       <c r="M80" s="65"/>
       <c r="N80" s="65"/>
     </row>
-    <row r="81" spans="1:14" ht="14.4">
+    <row r="81" spans="1:14">
       <c r="A81" s="65" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" s="65"/>
@@ -8613,12 +8622,12 @@
       <c r="M81" s="65"/>
       <c r="N81" s="65"/>
     </row>
-    <row r="82" spans="1:14" ht="14.4">
+    <row r="82" spans="1:14">
       <c r="A82" s="65" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" s="65"/>
@@ -8632,12 +8641,12 @@
       <c r="M82" s="65"/>
       <c r="N82" s="65"/>
     </row>
-    <row r="83" spans="1:14" ht="14.4">
+    <row r="83" spans="1:14">
       <c r="A83" s="65" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" s="65"/>
@@ -8651,12 +8660,12 @@
       <c r="M83" s="65"/>
       <c r="N83" s="65"/>
     </row>
-    <row r="84" spans="1:14" ht="14.4">
+    <row r="84" spans="1:14">
       <c r="A84" s="65" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" s="65"/>
@@ -8670,12 +8679,12 @@
       <c r="M84" s="65"/>
       <c r="N84" s="65"/>
     </row>
-    <row r="85" spans="1:14" ht="14.4">
+    <row r="85" spans="1:14">
       <c r="A85" s="65" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B85" s="65" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" s="65"/>
@@ -8689,12 +8698,12 @@
       <c r="M85" s="65"/>
       <c r="N85" s="65"/>
     </row>
-    <row r="86" spans="1:14" ht="14.4">
+    <row r="86" spans="1:14">
       <c r="A86" s="65" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B86" s="65" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" s="65"/>
@@ -8708,37 +8717,37 @@
       <c r="M86" s="65"/>
       <c r="N86" s="65"/>
     </row>
-    <row r="87" spans="1:14" ht="14.4">
+    <row r="87" spans="1:14">
       <c r="A87" s="69" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B87" s="69" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D87" s="69"/>
     </row>
-    <row r="88" spans="1:14" ht="14.4">
+    <row r="88" spans="1:14">
       <c r="A88" s="65" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B88" s="69" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D88" s="69"/>
     </row>
-    <row r="89" spans="1:14" ht="14.4">
+    <row r="89" spans="1:14">
       <c r="D89" s="69"/>
     </row>
-    <row r="90" spans="1:14" ht="14.4">
+    <row r="90" spans="1:14">
       <c r="D90" s="69"/>
     </row>
-    <row r="91" spans="1:14" ht="14.4">
+    <row r="91" spans="1:14">
       <c r="D91" s="69"/>
     </row>
-    <row r="92" spans="1:14" ht="14.4">
+    <row r="92" spans="1:14">
       <c r="D92" s="69"/>
     </row>
-    <row r="93" spans="1:14" ht="14.4">
+    <row r="93" spans="1:14">
       <c r="D93" s="69"/>
     </row>
   </sheetData>
@@ -8761,21 +8770,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="90" t="s">
         <v>18</v>
       </c>
@@ -8789,9 +8798,9 @@
       </c>
       <c r="I1" s="90"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="2" spans="1:9" ht="17" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>12</v>
@@ -8810,7 +8819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.6">
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8818,10 +8827,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="46" t="s">
@@ -8831,7 +8840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6">
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8839,10 +8848,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="48" t="s">
@@ -8852,7 +8861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6">
+    <row r="5" spans="1:9" ht="32">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8860,10 +8869,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="50" t="s">
@@ -8873,7 +8882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.2" thickBot="1">
+    <row r="6" spans="1:9" ht="33" thickBot="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8881,10 +8890,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="51" t="s">
@@ -8902,10 +8911,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8916,10 +8925,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8930,10 +8939,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8944,10 +8953,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D10" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8958,10 +8967,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D11" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8972,10 +8981,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D12" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8986,10 +8995,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9000,10 +9009,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9014,10 +9023,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D15" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9028,10 +9037,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D16" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -9049,68 +9058,68 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" style="12"/>
-    <col min="10" max="10" width="41.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.69921875" style="12"/>
-    <col min="13" max="13" width="31.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.19921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="12"/>
+    <col min="10" max="10" width="41.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="12"/>
+    <col min="13" max="13" width="31.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="12" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.69921875" style="12"/>
+    <col min="17" max="17" width="36.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B1" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="98"/>
+    <row r="1" spans="2:17" ht="15.5" customHeight="1" thickBot="1">
+      <c r="B1" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="123"/>
       <c r="D1" s="79"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="M1" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-    </row>
-    <row r="2" spans="2:17" ht="15.6">
+      <c r="G1" s="122"/>
+      <c r="H1" s="123"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="M1" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+    </row>
+    <row r="2" spans="2:17" ht="16">
       <c r="B2" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="45"/>
       <c r="G2" s="30"/>
       <c r="H2" s="33"/>
       <c r="J2" s="30"/>
       <c r="K2" s="33"/>
-      <c r="M2" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.6">
+      <c r="M2" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+    </row>
+    <row r="3" spans="2:17" ht="16">
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
       <c r="J3" s="34"/>
@@ -9119,16 +9128,16 @@
         <v>28</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P3" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="47.4" thickBot="1">
+    <row r="4" spans="2:17" ht="69" thickBot="1">
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="41"/>
@@ -9137,407 +9146,407 @@
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
       <c r="M4" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="41"/>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="O5" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="M6" s="116"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="108"/>
-    </row>
-    <row r="7" spans="2:17" ht="13.95" customHeight="1">
-      <c r="B7" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="98"/>
+      <c r="N5" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="105" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
+      <c r="M6" s="102"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="106"/>
+    </row>
+    <row r="7" spans="2:17" ht="14" customHeight="1">
+      <c r="B7" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="123"/>
       <c r="D7" s="79"/>
-      <c r="G7" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="98"/>
-      <c r="J7" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="133"/>
-    </row>
-    <row r="8" spans="2:17" ht="46.8">
+      <c r="G7" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="123"/>
+      <c r="J7" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="123"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="107"/>
+    </row>
+    <row r="8" spans="2:17" ht="51">
       <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="45"/>
       <c r="G8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8" s="28">
         <v>1.1100000000000001</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="46.8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="51">
       <c r="B9" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D9" s="41"/>
       <c r="G9" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="O9" s="28" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="63" thickBot="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="69" thickBot="1">
       <c r="B10" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="41"/>
       <c r="G10" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="M10" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="112" t="s">
+        <v>297</v>
+      </c>
+      <c r="M10" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="114" t="s">
-        <v>165</v>
+      <c r="N10" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="132" t="s">
+        <v>157</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="27.6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="32">
       <c r="B11" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="41"/>
       <c r="J11" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="115"/>
+        <v>438</v>
+      </c>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="133"/>
       <c r="P11" s="32"/>
     </row>
-    <row r="12" spans="2:17" ht="13.95" customHeight="1">
+    <row r="12" spans="2:17" ht="14" customHeight="1">
       <c r="B12" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="41"/>
       <c r="J12" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="M12" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" s="107" t="s">
-        <v>356</v>
+        <v>296</v>
+      </c>
+      <c r="M12" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="105" t="s">
+        <v>347</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
       <c r="B13" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D13" s="41"/>
       <c r="J13" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="M13" s="116"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="108"/>
+        <v>298</v>
+      </c>
+      <c r="M13" s="102"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="106"/>
       <c r="Q13" s="75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="13.95" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="14" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C14" s="12">
         <v>4968</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="M14" s="116"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="108"/>
+        <v>353</v>
+      </c>
+      <c r="M14" s="102"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="13.95" customHeight="1" thickBot="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="14" customHeight="1" thickBot="1">
       <c r="B15" s="12" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="109"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="131"/>
       <c r="Q15" s="75" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="14.4" thickBot="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16" thickBot="1">
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:16" ht="16.2" thickBot="1">
-      <c r="M17" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.6">
-      <c r="G18" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="98"/>
+    <row r="17" spans="1:16" ht="17" thickBot="1">
+      <c r="M17" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
+    </row>
+    <row r="18" spans="1:16" ht="16">
+      <c r="G18" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="123"/>
       <c r="M18" s="58" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P18" s="59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6">
+    <row r="19" spans="1:16" ht="16">
       <c r="G19" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="61"/>
       <c r="O19" s="61"/>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" ht="28.2" thickBot="1">
+    <row r="20" spans="1:16" ht="33" thickBot="1">
       <c r="G20" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="120"/>
-    </row>
-    <row r="21" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M21" s="129"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="121"/>
-    </row>
-    <row r="22" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M22" s="124"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="134"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.6">
-      <c r="A23" s="100" t="s">
-        <v>602</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="114"/>
+    </row>
+    <row r="21" spans="1:16" ht="14" customHeight="1">
+      <c r="M21" s="109"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="115"/>
+    </row>
+    <row r="22" spans="1:16" ht="14" customHeight="1">
+      <c r="M22" s="110"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="116"/>
+    </row>
+    <row r="23" spans="1:16" ht="16">
+      <c r="A23" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="81"/>
       <c r="M23" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="63"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6">
+    <row r="24" spans="1:16" ht="16">
       <c r="A24" s="45" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B24" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>62</v>
-      </c>
       <c r="M24" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="61" t="s">
         <v>90</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>91</v>
       </c>
       <c r="O24" s="61"/>
       <c r="P24" s="63"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6">
+    <row r="25" spans="1:16" ht="16">
       <c r="A25" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C25" s="41">
         <v>1.2</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="M25" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="125" t="s">
+      <c r="M25" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="127"/>
+      <c r="N25" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="118"/>
       <c r="P25" s="62"/>
     </row>
-    <row r="26" spans="1:16" ht="13.95" customHeight="1">
+    <row r="26" spans="1:16" ht="14" customHeight="1">
       <c r="A26" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C26" s="41">
         <v>1.7</v>
@@ -9546,20 +9555,20 @@
         <v>8</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F26" s="80"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="128"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="64"/>
     </row>
-    <row r="27" spans="1:16" ht="13.95" customHeight="1">
+    <row r="27" spans="1:16" ht="14" customHeight="1">
       <c r="A27" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C27" s="41">
         <v>1.7</v>
@@ -9568,24 +9577,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F27" s="80"/>
-      <c r="M27" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" s="125"/>
-      <c r="P27" s="120"/>
-    </row>
-    <row r="28" spans="1:16" ht="13.95" customHeight="1">
+      <c r="M27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="111"/>
+      <c r="P27" s="114"/>
+    </row>
+    <row r="28" spans="1:16" ht="14" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C28" s="41">
         <v>1.7</v>
@@ -9594,20 +9603,20 @@
         <v>8</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F28" s="80"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="121"/>
-    </row>
-    <row r="29" spans="1:16" ht="13.95" customHeight="1">
+      <c r="M28" s="109"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="115"/>
+    </row>
+    <row r="29" spans="1:16" ht="14" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C29" s="41">
         <v>1.7</v>
@@ -9616,20 +9625,20 @@
         <v>8</v>
       </c>
       <c r="E29" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="F29" s="80"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="115"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A30" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>592</v>
-      </c>
-      <c r="F29" s="80"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="121"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A30" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>601</v>
       </c>
       <c r="C30" s="41">
         <v>1.7</v>
@@ -9638,55 +9647,55 @@
         <v>8</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F30" s="80"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="122"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="117"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C31" s="41">
         <v>1.036</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="41" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C32" s="41">
         <v>1.0369999999999999</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:6" ht="14.4">
+    <row r="33" spans="1:6">
       <c r="A33" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="82">
@@ -9694,155 +9703,155 @@
       </c>
       <c r="F33" s="78"/>
     </row>
-    <row r="34" spans="1:6" ht="27.6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
       <c r="E34" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13.95" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14" customHeight="1">
       <c r="A35" s="41" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="13.95" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.95" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14" customHeight="1">
       <c r="A37" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="E38" s="80" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13.95" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14" customHeight="1">
       <c r="A42" s="41" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.95" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14" customHeight="1">
       <c r="A43" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="13.95" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14" customHeight="1">
       <c r="A44" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.5" customHeight="1">
       <c r="A45" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="41"/>
@@ -9850,27 +9859,27 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E47" s="41">
         <v>4968</v>
@@ -9878,23 +9887,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M1:P1"/>
@@ -9911,6 +9903,23 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9922,25 +9931,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8AAE32-97CB-44A3-9D30-DC7BB50E01BD}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -9948,224 +9957,244 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>59</v>
+        <v>652</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>100</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="85">
         <v>203.75</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="85">
         <v>204.16</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.4" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>104</v>
+        <v>653</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="85">
         <v>400072</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>104</v>
+        <v>653</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="85">
         <v>400491</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="85" t="s">
-        <v>105</v>
+        <v>655</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>108</v>
+        <v>650</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="85" t="s">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="85">
+        <v>90</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>651</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="85" t="s">
+        <v>656</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="85">
         <v>313040</v>
       </c>
-      <c r="E8" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="85">
+      <c r="E9" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="85" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="85">
         <v>391833</v>
       </c>
-      <c r="E9" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>637</v>
-      </c>
-      <c r="C10" s="85">
-        <v>12.2</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>113</v>
-      </c>
       <c r="E10" s="85" t="s">
-        <v>510</v>
+        <v>365</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="85" t="s">
-        <v>114</v>
+        <v>660</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C11" s="85">
-        <v>204</v>
+        <v>12.2</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="85" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C12" s="85">
+        <v>204</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="85">
         <v>203</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>101</v>
+      <c r="D13" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -10181,127 +10210,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F18C10-3B09-4F79-A233-78195B26116A}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="D1" s="100" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1" s="100"/>
-      <c r="G1" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="100"/>
-      <c r="J1" s="100" t="s">
-        <v>588</v>
-      </c>
-      <c r="K1" s="100"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6">
+      <c r="A1" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="G1" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="J1" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="40" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="65" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B4" s="78">
         <v>450634109</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:11" ht="14.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="65" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="78"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="65" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="78"/>
       <c r="D6" s="65"/>
@@ -10310,9 +10339,9 @@
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4">
+    <row r="7" spans="1:11">
       <c r="A7" s="65" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B7" s="78">
         <v>450634105</v>
@@ -10323,9 +10352,9 @@
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4">
+    <row r="8" spans="1:11">
       <c r="A8" s="65" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B8" s="78">
         <v>450640112</v>
@@ -10336,9 +10365,9 @@
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="65" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B9" s="78">
         <v>910663721</v>
@@ -10349,9 +10378,9 @@
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="65" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="78">
         <v>450640112</v>
@@ -10362,7 +10391,7 @@
       <c r="G10" s="65"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4">
+    <row r="11" spans="1:11">
       <c r="A11" s="78"/>
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
@@ -10370,7 +10399,7 @@
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4">
+    <row r="12" spans="1:11">
       <c r="A12" s="78"/>
       <c r="C12" s="78"/>
       <c r="D12" s="65"/>
@@ -10379,7 +10408,7 @@
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4">
+    <row r="13" spans="1:11">
       <c r="A13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="65"/>
@@ -10388,7 +10417,7 @@
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:11" ht="14.4">
+    <row r="14" spans="1:11">
       <c r="A14" s="78"/>
       <c r="D14" s="65"/>
       <c r="E14" s="65"/>
@@ -10396,7 +10425,7 @@
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4">
+    <row r="15" spans="1:11">
       <c r="A15" s="78"/>
       <c r="B15" s="65"/>
       <c r="D15" s="65"/>
@@ -10405,7 +10434,7 @@
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:11" ht="14.4">
+    <row r="16" spans="1:11">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -10415,7 +10444,7 @@
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -10425,7 +10454,7 @@
       <c r="G17" s="65"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -10435,7 +10464,7 @@
       <c r="G18" s="65"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -10445,7 +10474,7 @@
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -10455,7 +10484,7 @@
       <c r="G20" s="65"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -10465,7 +10494,7 @@
       <c r="G21" s="65"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -10475,7 +10504,7 @@
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -10485,7 +10514,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -10495,7 +10524,7 @@
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -10505,21 +10534,21 @@
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4">
+    <row r="26" spans="1:8">
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4">
+    <row r="27" spans="1:8">
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4">
+    <row r="28" spans="1:8">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
@@ -10529,7 +10558,7 @@
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -10539,7 +10568,7 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -10549,7 +10578,7 @@
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -10559,7 +10588,7 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
@@ -10569,7 +10598,7 @@
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -10579,7 +10608,7 @@
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
     </row>
-    <row r="34" spans="1:8" ht="14.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -10589,7 +10618,7 @@
       <c r="G34" s="65"/>
       <c r="H34" s="65"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
@@ -10599,7 +10628,7 @@
       <c r="G35" s="65"/>
       <c r="H35" s="65"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -10629,110 +10658,110 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.59765625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.296875" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.2" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+    <row r="1" spans="1:14" ht="19.25" customHeight="1">
+      <c r="A1" s="97" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="N1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="32">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="D4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" t="s">
         <v>643</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>648</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>645</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="27.6">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>649</v>
-      </c>
-      <c r="D3" t="s">
-        <v>653</v>
-      </c>
-      <c r="F3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="27.6">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>650</v>
-      </c>
-      <c r="D4" t="s">
-        <v>653</v>
-      </c>
-      <c r="F4" t="s">
-        <v>652</v>
-      </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" customHeight="1"/>
-    <row r="11" spans="1:14" ht="15.6" customHeight="1"/>
-    <row r="16" spans="1:14" ht="15.6" customHeight="1"/>
-    <row r="21" ht="15.6" customHeight="1"/>
-    <row r="25" ht="15.6" customHeight="1"/>
-    <row r="29" ht="15.6" customHeight="1"/>
-    <row r="33" ht="15.6" customHeight="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" customHeight="1"/>
+    <row r="11" spans="1:14" ht="15.5" customHeight="1"/>
+    <row r="16" spans="1:14" ht="15.5" customHeight="1"/>
+    <row r="21" ht="15.5" customHeight="1"/>
+    <row r="25" ht="15.5" customHeight="1"/>
+    <row r="29" ht="15.5" customHeight="1"/>
+    <row r="33" ht="15.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -10749,69 +10778,69 @@
       <selection activeCell="C36" sqref="A1:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" customHeight="1">
+    <row r="1" spans="1:2" ht="15.5" customHeight="1">
       <c r="A1" s="135" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B1" s="136"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="55" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="55" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B4" s="54">
         <v>1.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="55" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="55" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6" s="54">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="55" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B8" s="54">
         <v>203</v>
@@ -10827,55 +10856,55 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="56" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="56" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="56" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="56" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="56" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="56" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="56" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="56" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B19" s="14"/>
     </row>
@@ -10887,63 +10916,63 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:2" ht="15.6" customHeight="1">
+    <row r="22" spans="1:2" ht="15.5" customHeight="1">
       <c r="A22" s="137" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B22" s="138"/>
     </row>
-    <row r="23" spans="1:2" ht="15.6">
+    <row r="23" spans="1:2" ht="16">
       <c r="A23" s="57" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
       <c r="A24" s="57" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
       <c r="A25" s="57" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B25" s="53">
         <v>1.22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6">
+    <row r="26" spans="1:2" ht="16">
       <c r="A26" s="57" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
       <c r="A27" s="57" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B27" s="53">
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6">
+    <row r="28" spans="1:2" ht="16">
       <c r="A28" s="57" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16">
       <c r="A29" s="57" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B29" s="53">
         <v>356</v>

--- a/bin/Equipment Traceability.xlsx
+++ b/bin/Equipment Traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eranyonai/Documents/GitHub/Baseline-Check/bin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyonai\Documents\GitHub\Baseline-Check\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EAD952-E66C-3B40-89C5-74CE2F951D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16E2C35-EF6D-4500-BB3F-FAE7A098B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="560" windowWidth="34320" windowHeight="28180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -544,9 +544,6 @@
     <t>Secondary FW Ver</t>
   </si>
   <si>
-    <t>Main FW Ver</t>
-  </si>
-  <si>
     <t>Front Location</t>
   </si>
   <si>
@@ -2047,6 +2044,9 @@
   </si>
   <si>
     <t>GE Vivid Q</t>
+  </si>
+  <si>
+    <t>Main FW Version</t>
   </si>
 </sst>
 </file>
@@ -2060,14 +2060,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2075,7 +2075,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2083,7 +2083,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2097,7 +2097,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2126,7 +2126,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -2138,21 +2138,21 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2165,7 +2165,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2946,119 +2946,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3079,13 +3079,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3129,6 +3122,13 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3143,14 +3143,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFAFC111-C653-4285-B202-864AD83C15E8}" name="Table2" displayName="Table2" ref="A24:E47" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFAFC111-C653-4285-B202-864AD83C15E8}" name="Table2" displayName="Table2" ref="A24:E47" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A24:E47" xr:uid="{EFAFC111-C653-4285-B202-864AD83C15E8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2CA739BB-E368-4CF0-8E13-2437019C2075}" name="Type" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{175A43D6-0A69-4DD7-B771-B2889CF18C18}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{EA3CCB8D-7CC5-4449-9290-788A76851B85}" name="SW Version" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8D02658C-64C5-4AD6-82FB-AEE2D6FBE80E}" name="HW Version" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3FE53009-28E7-4927-9F7D-C96C3F0FA23F}" name="S/N" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2CA739BB-E368-4CF0-8E13-2437019C2075}" name="Type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{175A43D6-0A69-4DD7-B771-B2889CF18C18}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EA3CCB8D-7CC5-4449-9290-788A76851B85}" name="SW Version" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8D02658C-64C5-4AD6-82FB-AEE2D6FBE80E}" name="HW Version" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3FE53009-28E7-4927-9F7D-C96C3F0FA23F}" name="S/N" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3425,19 +3425,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" style="43" customWidth="1"/>
     <col min="9" max="9" width="15" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="43"/>
+    <col min="10" max="10" width="24.19921875" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3454,12 +3454,12 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>594</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>595</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>597</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>598</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>3</v>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>4</v>
@@ -3526,22 +3526,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="66">
         <v>900</v>
       </c>
       <c r="E4" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>207</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>600</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>208</v>
       </c>
       <c r="I4" s="67">
         <v>44473</v>
@@ -3558,19 +3558,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="E5" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="F5" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="H5" s="66" t="s">
         <v>227</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>228</v>
       </c>
       <c r="I5" s="67">
         <v>44268</v>
@@ -3581,25 +3581,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="66">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>232</v>
-      </c>
       <c r="H6" s="66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="72" t="s">
@@ -3608,7 +3608,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="66">
         <v>5</v>
@@ -3617,7 +3617,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>90</v>
@@ -3626,12 +3626,12 @@
         <v>90</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="72"/>
       <c r="K7" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3642,19 +3642,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I8" s="66">
         <v>44360</v>
@@ -3671,19 +3671,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="66" t="s">
-        <v>287</v>
-      </c>
       <c r="H9" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I9" s="66">
         <v>44552</v>
@@ -3694,25 +3694,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="66">
         <v>4</v>
       </c>
       <c r="C10" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="66" t="s">
+      <c r="F10" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="H10" s="66" t="s">
         <v>292</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>293</v>
       </c>
       <c r="I10" s="66">
         <v>44343</v>
@@ -3729,19 +3729,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="66" t="s">
+      <c r="F11" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="H11" s="66" t="s">
         <v>309</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>310</v>
       </c>
       <c r="I11" s="66"/>
       <c r="J11" s="72" t="s">
@@ -3756,19 +3756,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D12" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="F12" s="66" t="s">
+      <c r="H12" s="66" t="s">
         <v>312</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>313</v>
       </c>
       <c r="I12" s="66"/>
       <c r="J12" s="72" t="s">
@@ -3777,25 +3777,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="66">
         <v>4</v>
       </c>
       <c r="C13" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>333</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>334</v>
       </c>
       <c r="F13" s="66">
         <v>12101290</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" s="66"/>
       <c r="J13" s="72" t="s">
@@ -3810,19 +3810,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="66" t="s">
+      <c r="F14" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="H14" s="66" t="s">
         <v>351</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>352</v>
       </c>
       <c r="I14" s="66">
         <v>44375</v>
@@ -3839,187 +3839,187 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="H15" s="66" t="s">
         <v>357</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>358</v>
       </c>
       <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" s="66">
         <v>4</v>
       </c>
       <c r="C16" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="F16" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="H16" s="66" t="s">
         <v>363</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>364</v>
       </c>
       <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17" s="66">
         <v>4</v>
       </c>
       <c r="C17" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="F17" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="H17" s="66" t="s">
         <v>381</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>382</v>
       </c>
       <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" s="66">
         <v>4</v>
       </c>
       <c r="C18" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="66" t="s">
+      <c r="F18" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="F18" s="66" t="s">
-        <v>388</v>
-      </c>
       <c r="H18" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" s="66">
         <v>4</v>
       </c>
       <c r="C19" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>556</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>394</v>
-      </c>
       <c r="H19" s="66" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="66">
         <v>4</v>
       </c>
       <c r="C20" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="E20" s="66" t="s">
+      <c r="F20" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="H20" s="66" t="s">
         <v>403</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>404</v>
       </c>
       <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B21" s="66">
         <v>4</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21" s="66">
         <v>1095</v>
       </c>
       <c r="F21" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="H21" s="66" t="s">
         <v>431</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>432</v>
       </c>
       <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="66">
         <v>4</v>
       </c>
       <c r="C22" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22" s="66" t="s">
+      <c r="F22" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="H22" s="66" t="s">
         <v>464</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>465</v>
       </c>
       <c r="I22" s="66"/>
     </row>
@@ -4031,43 +4031,43 @@
         <v>4</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E23" s="66">
         <v>8408</v>
       </c>
       <c r="F23" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" s="66" t="s">
         <v>488</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>489</v>
       </c>
       <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" s="66">
         <v>4</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E24" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="F24" s="66" t="s">
-        <v>495</v>
-      </c>
       <c r="H24" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -4082,31 +4082,31 @@
         <v>4357</v>
       </c>
       <c r="D25" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="66" t="s">
         <v>497</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="F25" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="H25" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="H25" s="66" t="s">
-        <v>500</v>
-      </c>
       <c r="I25" s="66"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="66">
         <v>2</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -4115,25 +4115,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B27" s="66">
         <v>4</v>
       </c>
       <c r="C27" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>539</v>
+      </c>
+      <c r="E27" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="D27" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="E27" s="66" t="s">
+      <c r="F27" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="H27" s="66" t="s">
         <v>543</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>544</v>
       </c>
       <c r="I27" s="66"/>
     </row>
@@ -4145,19 +4145,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="E28" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="F28" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="H28" s="66" t="s">
         <v>560</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>561</v>
       </c>
       <c r="I28" s="66"/>
     </row>
@@ -4276,13 +4276,13 @@
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="M41" s="88" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
       <c r="P41" s="89"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" ht="14.4">
       <c r="A42" s="66"/>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
@@ -4291,7 +4291,7 @@
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="M42" s="65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4303,16 +4303,16 @@
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
       <c r="M43" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N43" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O43" s="66">
         <v>2</v>
       </c>
       <c r="P43" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q43" s="66"/>
     </row>
@@ -4507,7 +4507,7 @@
     <mergeCell ref="M41:P41"/>
   </mergeCells>
   <conditionalFormatting sqref="I29:I1048576 J2:J28 I1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4520,48 +4520,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11CB3CA-4693-489E-913F-95221AF8CC71}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-    </row>
-    <row r="2" spans="1:17" ht="16">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="40" t="s">
         <v>61</v>
       </c>
@@ -4572,250 +4572,250 @@
         <v>58</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>168</v>
+        <v>660</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="Q2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="14.4">
+      <c r="A3" s="65" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="65" t="s">
+      <c r="B3" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="65" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>184</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="J3" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="K3" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="L3" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="M3" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="N3" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="O3" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="P3" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="Q3" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:17" ht="14.4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="65" t="s">
         <v>183</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>184</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="I4" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="J4" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="K4" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="L4" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="M4" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="N4" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="O4" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="P4" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="Q4" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:17" ht="14.4">
       <c r="A5" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>183</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>184</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="I5" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="J5" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="K5" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="L5" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="M5" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="N5" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="O5" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="P5" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="Q5" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="Q5" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" ht="14.4">
       <c r="A6" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="65" t="s">
         <v>183</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>184</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="I6" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="J6" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="K6" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="L6" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="M6" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="N6" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="O6" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="P6" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="Q6" s="65" t="s">
         <v>194</v>
-      </c>
-      <c r="Q6" s="65" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4835,28 +4835,28 @@
       <selection activeCell="L17" activeCellId="1" sqref="F8 L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="F1" s="97" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="F1" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="40" t="s">
         <v>120</v>
       </c>
@@ -4873,16 +4873,16 @@
         <v>86</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G3" s="65">
         <v>222</v>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4925,15 +4925,15 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4952,18 +4952,18 @@
       </c>
       <c r="L1" s="90"/>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -4975,7 +4975,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -4984,15 +4984,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="14.4">
       <c r="A3" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>32</v>
@@ -5004,21 +5004,21 @@
         <v>36</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H3" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" ht="14.4">
       <c r="A4" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>35</v>
@@ -5030,21 +5030,21 @@
         <v>36</v>
       </c>
       <c r="G4" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H4" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:12" ht="14.4">
       <c r="A5" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>35</v>
@@ -5056,21 +5056,21 @@
         <v>36</v>
       </c>
       <c r="G5" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H5" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>35</v>
@@ -5082,47 +5082,47 @@
         <v>41</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H6" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H7" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H7" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>238</v>
-      </c>
       <c r="C8" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>35</v>
@@ -5134,21 +5134,21 @@
         <v>36</v>
       </c>
       <c r="G8" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H8" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H8" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>32</v>
@@ -5160,21 +5160,21 @@
         <v>36</v>
       </c>
       <c r="G9" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H9" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>35</v>
@@ -5186,21 +5186,21 @@
         <v>36</v>
       </c>
       <c r="G10" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H10" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>35</v>
@@ -5212,21 +5212,21 @@
         <v>36</v>
       </c>
       <c r="G11" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H11" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H11" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>32</v>
@@ -5238,21 +5238,21 @@
         <v>36</v>
       </c>
       <c r="G12" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H12" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>35</v>
@@ -5264,21 +5264,21 @@
         <v>36</v>
       </c>
       <c r="G13" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H13" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H13" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>35</v>
@@ -5290,21 +5290,21 @@
         <v>36</v>
       </c>
       <c r="G14" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H14" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="65" t="s">
         <v>35</v>
@@ -5316,21 +5316,21 @@
         <v>36</v>
       </c>
       <c r="G15" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H15" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H15" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>35</v>
@@ -5342,21 +5342,21 @@
         <v>36</v>
       </c>
       <c r="G16" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H16" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+    </row>
+    <row r="17" spans="1:31" ht="14.4">
       <c r="A17" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>35</v>
@@ -5368,21 +5368,21 @@
         <v>36</v>
       </c>
       <c r="G17" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H17" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H17" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+    </row>
+    <row r="18" spans="1:31" ht="14.4">
       <c r="A18" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>32</v>
@@ -5394,21 +5394,21 @@
         <v>36</v>
       </c>
       <c r="G18" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H18" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+    </row>
+    <row r="19" spans="1:31" ht="14.4">
       <c r="A19" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>35</v>
@@ -5420,21 +5420,21 @@
         <v>36</v>
       </c>
       <c r="G19" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H19" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+    </row>
+    <row r="20" spans="1:31" ht="14.4">
       <c r="A20" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>35</v>
@@ -5446,21 +5446,21 @@
         <v>36</v>
       </c>
       <c r="G20" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H20" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="H20" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+    </row>
+    <row r="21" spans="1:31" ht="14.4">
       <c r="A21" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>35</v>
@@ -5472,10 +5472,10 @@
         <v>36</v>
       </c>
       <c r="G21" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H21" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W21" s="90"/>
       <c r="X21" s="90"/>
@@ -5487,15 +5487,15 @@
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
     </row>
-    <row r="22" spans="1:31" ht="16">
+    <row r="22" spans="1:31" ht="15.6">
       <c r="A22" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="65" t="s">
         <v>32</v>
@@ -5507,10 +5507,10 @@
         <v>36</v>
       </c>
       <c r="G22" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H22" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H22" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5522,15 +5522,15 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" ht="14.4">
       <c r="A23" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>35</v>
@@ -5542,10 +5542,10 @@
         <v>36</v>
       </c>
       <c r="G23" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W23" s="15"/>
       <c r="X23" s="7"/>
@@ -5557,15 +5557,15 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" ht="14.4">
       <c r="A24" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>35</v>
@@ -5577,10 +5577,10 @@
         <v>36</v>
       </c>
       <c r="G24" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H24" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="7"/>
@@ -5592,15 +5592,15 @@
       <c r="AD24" s="16"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" ht="14.4">
       <c r="A25" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>35</v>
@@ -5612,10 +5612,10 @@
         <v>36</v>
       </c>
       <c r="G25" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W25" s="15"/>
       <c r="X25" s="7"/>
@@ -5627,15 +5627,15 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" ht="14.4">
       <c r="A26" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>35</v>
@@ -5647,10 +5647,10 @@
         <v>36</v>
       </c>
       <c r="G26" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H26" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -5662,15 +5662,15 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" ht="14.4">
       <c r="A27" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>32</v>
@@ -5682,10 +5682,10 @@
         <v>36</v>
       </c>
       <c r="G27" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H27" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W27" s="15"/>
       <c r="X27" s="7"/>
@@ -5697,15 +5697,15 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" ht="14.4">
       <c r="A28" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>35</v>
@@ -5717,10 +5717,10 @@
         <v>36</v>
       </c>
       <c r="G28" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H28" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W28" s="15"/>
       <c r="X28" s="7"/>
@@ -5732,15 +5732,15 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="14.4">
       <c r="A29" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>35</v>
@@ -5752,10 +5752,10 @@
         <v>36</v>
       </c>
       <c r="G29" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H29" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="7"/>
@@ -5767,15 +5767,15 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" ht="14.4">
       <c r="A30" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>32</v>
@@ -5787,10 +5787,10 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H30" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="7"/>
@@ -5802,15 +5802,15 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" ht="14.4">
       <c r="A31" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>32</v>
@@ -5822,10 +5822,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H31" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W31" s="15"/>
       <c r="X31" s="7"/>
@@ -5837,15 +5837,15 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" ht="14.4">
       <c r="A32" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>32</v>
@@ -5857,10 +5857,10 @@
         <v>36</v>
       </c>
       <c r="G32" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H32" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="7"/>
@@ -5872,15 +5872,15 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" ht="14.4">
       <c r="A33" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>32</v>
@@ -5892,10 +5892,10 @@
         <v>36</v>
       </c>
       <c r="G33" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H33" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W33" s="15"/>
       <c r="X33" s="7"/>
@@ -5907,15 +5907,15 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" ht="14.4">
       <c r="A34" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>32</v>
@@ -5927,10 +5927,10 @@
         <v>36</v>
       </c>
       <c r="G34" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H34" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="7"/>
@@ -5942,15 +5942,15 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" ht="14.4">
       <c r="A35" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>35</v>
@@ -5962,10 +5962,10 @@
         <v>36</v>
       </c>
       <c r="G35" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H35" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H35" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W35" s="15"/>
       <c r="X35" s="7"/>
@@ -5977,15 +5977,15 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="14.4">
       <c r="A36" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>32</v>
@@ -5997,10 +5997,10 @@
         <v>36</v>
       </c>
       <c r="G36" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H36" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W36" s="15"/>
       <c r="X36" s="7"/>
@@ -6012,15 +6012,15 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" ht="14.4">
       <c r="A37" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>32</v>
@@ -6032,10 +6032,10 @@
         <v>36</v>
       </c>
       <c r="G37" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H37" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W37" s="15"/>
       <c r="X37" s="7"/>
@@ -6047,15 +6047,15 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" ht="14.4">
       <c r="A38" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>35</v>
@@ -6067,10 +6067,10 @@
         <v>36</v>
       </c>
       <c r="G38" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H38" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="7"/>
@@ -6082,15 +6082,15 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" ht="14.4">
       <c r="A39" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="65" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>35</v>
@@ -6102,10 +6102,10 @@
         <v>36</v>
       </c>
       <c r="G39" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H39" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H39" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="7"/>
@@ -6117,30 +6117,30 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" ht="14.4">
       <c r="A40" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H40" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W40" s="15"/>
       <c r="X40" s="7"/>
@@ -6152,18 +6152,18 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" ht="14.4">
       <c r="A41" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="65" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E41" s="65" t="s">
         <v>165</v>
@@ -6172,10 +6172,10 @@
         <v>36</v>
       </c>
       <c r="G41" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H41" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H41" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W41" s="15"/>
       <c r="X41" s="7"/>
@@ -6187,24 +6187,24 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="14.4">
       <c r="A42" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H42" s="65" t="s">
         <v>604</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>605</v>
       </c>
       <c r="W42" s="15"/>
       <c r="X42" s="7"/>
@@ -6590,7 +6590,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="23:31">
+    <row r="77" spans="23:31" ht="14.4">
       <c r="W77" s="15"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="7"/>
@@ -6634,7 +6634,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="23:31">
+    <row r="81" spans="23:31" ht="14.4">
       <c r="W81" s="15"/>
       <c r="X81" s="21"/>
       <c r="Y81" s="7"/>
@@ -6700,7 +6700,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="23:31">
+    <row r="87" spans="23:31" ht="14.4">
       <c r="W87" s="15"/>
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
@@ -6909,7 +6909,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="23:31">
+    <row r="106" spans="23:31" ht="14.4">
       <c r="W106" s="7"/>
       <c r="X106" s="27"/>
       <c r="Y106" s="27"/>
@@ -6920,7 +6920,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="23:31">
+    <row r="107" spans="23:31" ht="14.4">
       <c r="W107" s="15"/>
       <c r="X107" s="27"/>
       <c r="Y107" s="27"/>
@@ -6956,37 +6956,37 @@
   <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="27.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="12"/>
+    <col min="8" max="8" width="12.296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="4.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1" s="90"/>
       <c r="D1" s="90" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E1" s="90"/>
       <c r="G1" s="90" t="s">
@@ -6995,24 +6995,24 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="K1" s="90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L1" s="90"/>
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
     </row>
-    <row r="2" spans="1:16" ht="16">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>61</v>
@@ -7024,109 +7024,109 @@
         <v>59</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>267</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="14.4">
       <c r="A3" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>315</v>
-      </c>
       <c r="D3" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="H3" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>329</v>
-      </c>
       <c r="K3" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="65" t="s">
         <v>268</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>269</v>
       </c>
       <c r="M3" s="65">
         <v>1</v>
       </c>
       <c r="N3" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4">
+      <c r="A4" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>503</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="K4" s="65" t="s">
+      <c r="L4" s="65" t="s">
         <v>271</v>
-      </c>
-      <c r="L4" s="65" t="s">
-        <v>272</v>
       </c>
       <c r="M4" s="65">
         <v>4</v>
       </c>
       <c r="N4" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4">
       <c r="A5" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>256</v>
-      </c>
       <c r="D5" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
@@ -7134,33 +7134,33 @@
       <c r="O5" s="65"/>
       <c r="P5" s="65"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="14.4">
       <c r="A6" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.4">
+      <c r="A7" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>222</v>
-      </c>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>223</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
@@ -7170,18 +7170,18 @@
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="14.4">
       <c r="A8" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>323</v>
-      </c>
       <c r="D8" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -7191,18 +7191,18 @@
       <c r="M8" s="65"/>
       <c r="N8" s="65"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="14.4">
       <c r="A9" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D9" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>262</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>263</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
@@ -7212,18 +7212,18 @@
       <c r="M9" s="65"/>
       <c r="N9" s="65"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="14.4">
       <c r="A10" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>304</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>305</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
@@ -7233,18 +7233,18 @@
       <c r="M10" s="65"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="14.4">
       <c r="A11" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>317</v>
-      </c>
       <c r="D11" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
@@ -7254,18 +7254,18 @@
       <c r="M11" s="65"/>
       <c r="N11" s="65"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="14.4">
       <c r="A12" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>250</v>
-      </c>
       <c r="D12" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -7275,18 +7275,18 @@
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="14.4">
       <c r="A13" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="65"/>
@@ -7296,18 +7296,18 @@
       <c r="M13" s="65"/>
       <c r="N13" s="65"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="14.4">
       <c r="A14" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>248</v>
-      </c>
       <c r="D14" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="65" t="s">
         <v>202</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>203</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
@@ -7317,18 +7317,18 @@
       <c r="M14" s="65"/>
       <c r="N14" s="65"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="14.4">
       <c r="A15" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="65" t="s">
-        <v>244</v>
-      </c>
       <c r="D15" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="65" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>203</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
@@ -7338,18 +7338,18 @@
       <c r="M15" s="65"/>
       <c r="N15" s="65"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="14.4">
       <c r="A16" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>254</v>
-      </c>
       <c r="D16" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
@@ -7359,18 +7359,18 @@
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="14.4">
       <c r="A17" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="D17" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
@@ -7380,18 +7380,18 @@
       <c r="M17" s="65"/>
       <c r="N17" s="65"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="14.4">
       <c r="A18" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -7401,18 +7401,18 @@
       <c r="M18" s="65"/>
       <c r="N18" s="65"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="14.4">
       <c r="A19" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
@@ -7422,18 +7422,18 @@
       <c r="M19" s="65"/>
       <c r="N19" s="65"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="14.4">
       <c r="A20" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="65" t="s">
-        <v>321</v>
-      </c>
       <c r="D20" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
@@ -7443,18 +7443,18 @@
       <c r="M20" s="65"/>
       <c r="N20" s="65"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="14.4">
       <c r="A21" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="65" t="s">
-        <v>212</v>
-      </c>
       <c r="D21" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>374</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
@@ -7464,18 +7464,18 @@
       <c r="M21" s="65"/>
       <c r="N21" s="65"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="14.4">
       <c r="A22" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>252</v>
-      </c>
       <c r="D22" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="65" t="s">
         <v>375</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>376</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="65"/>
@@ -7485,18 +7485,18 @@
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="14.4">
       <c r="A23" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>301</v>
-      </c>
       <c r="D23" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>423</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>424</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
@@ -7506,18 +7506,18 @@
       <c r="M23" s="65"/>
       <c r="N23" s="65"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="14.4">
       <c r="A24" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="65" t="s">
         <v>425</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>426</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="65"/>
@@ -7527,18 +7527,18 @@
       <c r="M24" s="65"/>
       <c r="N24" s="65"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="14.4">
       <c r="A25" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="65" t="s">
-        <v>326</v>
-      </c>
       <c r="D25" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
@@ -7548,18 +7548,18 @@
       <c r="M25" s="65"/>
       <c r="N25" s="65"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="14.4">
       <c r="A26" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="E26" s="65" t="s">
         <v>458</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>459</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
@@ -7569,18 +7569,18 @@
       <c r="M26" s="65"/>
       <c r="N26" s="65"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" ht="14.4">
       <c r="A27" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>484</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>485</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="65"/>
@@ -7590,18 +7590,18 @@
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="14.4">
       <c r="A28" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>279</v>
-      </c>
       <c r="D28" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
@@ -7611,18 +7611,18 @@
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" ht="14.4">
       <c r="A29" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>303</v>
-      </c>
       <c r="D29" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>458</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>459</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
@@ -7632,18 +7632,18 @@
       <c r="M29" s="65"/>
       <c r="N29" s="65"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" ht="14.4">
       <c r="A30" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D30" s="65" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>570</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>571</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
@@ -7653,12 +7653,12 @@
       <c r="M30" s="65"/>
       <c r="N30" s="65"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="14.4">
       <c r="A31" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>369</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>370</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
@@ -7672,12 +7672,12 @@
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" ht="14.4">
       <c r="A32" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="65" t="s">
         <v>371</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>372</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
@@ -7691,12 +7691,12 @@
       <c r="M32" s="65"/>
       <c r="N32" s="65"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="14.4">
       <c r="A33" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
@@ -7710,12 +7710,12 @@
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" ht="14.4">
       <c r="A34" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
@@ -7729,12 +7729,12 @@
       <c r="M34" s="65"/>
       <c r="N34" s="65"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" ht="14.4">
       <c r="A35" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="65" t="s">
         <v>408</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>409</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
@@ -7748,12 +7748,12 @@
       <c r="M35" s="65"/>
       <c r="N35" s="65"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" ht="14.4">
       <c r="A36" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>410</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>411</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -7767,12 +7767,12 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" ht="14.4">
       <c r="A37" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="65" t="s">
         <v>412</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>413</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
@@ -7786,12 +7786,12 @@
       <c r="M37" s="65"/>
       <c r="N37" s="65"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" ht="14.4">
       <c r="A38" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="65"/>
@@ -7805,12 +7805,12 @@
       <c r="M38" s="65"/>
       <c r="N38" s="65"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" ht="14.4">
       <c r="A39" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>418</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>419</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="65"/>
@@ -7824,12 +7824,12 @@
       <c r="M39" s="65"/>
       <c r="N39" s="65"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" ht="14.4">
       <c r="A40" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="65" t="s">
         <v>420</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>421</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="65"/>
@@ -7843,12 +7843,12 @@
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" ht="14.4">
       <c r="A41" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="65"/>
       <c r="E41" s="65"/>
@@ -7862,12 +7862,12 @@
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" ht="14.4">
       <c r="A42" s="65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="65"/>
@@ -7881,12 +7881,12 @@
       <c r="M42" s="65"/>
       <c r="N42" s="65"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" ht="14.4">
       <c r="A43" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="65" t="s">
         <v>433</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>434</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" s="65"/>
@@ -7900,12 +7900,12 @@
       <c r="M43" s="65"/>
       <c r="N43" s="65"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" ht="14.4">
       <c r="A44" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="65" t="s">
         <v>440</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>441</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="65"/>
@@ -7919,12 +7919,12 @@
       <c r="M44" s="65"/>
       <c r="N44" s="65"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" ht="14.4">
       <c r="A45" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" s="65" t="s">
         <v>442</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>443</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="65"/>
@@ -7938,12 +7938,12 @@
       <c r="M45" s="65"/>
       <c r="N45" s="65"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="14.4">
       <c r="A46" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="B46" s="65" t="s">
         <v>444</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>445</v>
       </c>
       <c r="D46" s="65"/>
       <c r="E46" s="65"/>
@@ -7957,12 +7957,12 @@
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" ht="14.4">
       <c r="A47" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="65" t="s">
         <v>446</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>447</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" s="65"/>
@@ -7976,12 +7976,12 @@
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="14.4">
       <c r="A48" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="B48" s="65" t="s">
         <v>450</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>451</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" s="65"/>
@@ -7995,12 +7995,12 @@
       <c r="M48" s="65"/>
       <c r="N48" s="65"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" ht="14.4">
       <c r="A49" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="65" t="s">
         <v>452</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>453</v>
       </c>
       <c r="D49" s="65"/>
       <c r="E49" s="65"/>
@@ -8014,12 +8014,12 @@
       <c r="M49" s="65"/>
       <c r="N49" s="65"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" ht="14.4">
       <c r="A50" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" s="65" t="s">
         <v>454</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>455</v>
       </c>
       <c r="D50" s="65"/>
       <c r="E50" s="65"/>
@@ -8033,12 +8033,12 @@
       <c r="M50" s="65"/>
       <c r="N50" s="65"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" ht="14.4">
       <c r="A51" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="65" t="s">
         <v>456</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>457</v>
       </c>
       <c r="D51" s="65"/>
       <c r="E51" s="65"/>
@@ -8052,12 +8052,12 @@
       <c r="M51" s="65"/>
       <c r="N51" s="65"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="14.4">
       <c r="A52" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" s="65" t="s">
         <v>466</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>467</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" s="65"/>
@@ -8071,12 +8071,12 @@
       <c r="M52" s="65"/>
       <c r="N52" s="65"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" ht="14.4">
       <c r="A53" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D53" s="65"/>
       <c r="E53" s="65"/>
@@ -8090,12 +8090,12 @@
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" ht="14.4">
       <c r="A54" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="65" t="s">
         <v>468</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>469</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" s="65"/>
@@ -8109,12 +8109,12 @@
       <c r="M54" s="65"/>
       <c r="N54" s="65"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" ht="14.4">
       <c r="A55" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="65" t="s">
         <v>243</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>244</v>
       </c>
       <c r="D55" s="65"/>
       <c r="E55" s="65"/>
@@ -8128,12 +8128,12 @@
       <c r="M55" s="65"/>
       <c r="N55" s="65"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" ht="14.4">
       <c r="A56" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56" s="65" t="s">
         <v>470</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>471</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8147,12 +8147,12 @@
       <c r="M56" s="65"/>
       <c r="N56" s="65"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" ht="14.4">
       <c r="A57" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>466</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>467</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="65"/>
@@ -8166,12 +8166,12 @@
       <c r="M57" s="65"/>
       <c r="N57" s="65"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" ht="14.4">
       <c r="A58" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B58" s="65" t="s">
         <v>472</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>473</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
@@ -8185,12 +8185,12 @@
       <c r="M58" s="65"/>
       <c r="N58" s="65"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" ht="14.4">
       <c r="A59" s="65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" s="65"/>
@@ -8204,12 +8204,12 @@
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" ht="14.4">
       <c r="A60" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
@@ -8223,12 +8223,12 @@
       <c r="M60" s="65"/>
       <c r="N60" s="65"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" ht="14.4">
       <c r="A61" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="B61" s="65" t="s">
         <v>477</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>478</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="65"/>
@@ -8242,12 +8242,12 @@
       <c r="M61" s="65"/>
       <c r="N61" s="65"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" ht="14.4">
       <c r="A62" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="65" t="s">
         <v>247</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>248</v>
       </c>
       <c r="D62" s="65"/>
       <c r="E62" s="65"/>
@@ -8261,12 +8261,12 @@
       <c r="M62" s="65"/>
       <c r="N62" s="65"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" ht="14.4">
       <c r="A63" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="65" t="s">
         <v>479</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>480</v>
       </c>
       <c r="D63" s="65"/>
       <c r="E63" s="65"/>
@@ -8280,12 +8280,12 @@
       <c r="M63" s="65"/>
       <c r="N63" s="65"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" ht="14.4">
       <c r="A64" s="65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D64" s="65"/>
       <c r="E64" s="65"/>
@@ -8299,12 +8299,12 @@
       <c r="M64" s="65"/>
       <c r="N64" s="65"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" ht="14.4">
       <c r="A65" s="65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D65" s="65"/>
       <c r="E65" s="65"/>
@@ -8318,12 +8318,12 @@
       <c r="M65" s="65"/>
       <c r="N65" s="65"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" ht="14.4">
       <c r="A66" s="65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="65"/>
@@ -8337,12 +8337,12 @@
       <c r="M66" s="65"/>
       <c r="N66" s="65"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" ht="14.4">
       <c r="A67" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="B67" s="65" t="s">
         <v>490</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>491</v>
       </c>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
@@ -8356,12 +8356,12 @@
       <c r="M67" s="65"/>
       <c r="N67" s="65"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" ht="14.4">
       <c r="A68" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="B68" s="65" t="s">
         <v>504</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>505</v>
       </c>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
@@ -8375,12 +8375,12 @@
       <c r="M68" s="65"/>
       <c r="N68" s="65"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" ht="14.4">
       <c r="A69" s="65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D69" s="65"/>
       <c r="E69" s="65"/>
@@ -8394,12 +8394,12 @@
       <c r="M69" s="65"/>
       <c r="N69" s="65"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" ht="14.4">
       <c r="A70" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="B70" s="65" t="s">
         <v>507</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>508</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" s="65"/>
@@ -8413,12 +8413,12 @@
       <c r="M70" s="65"/>
       <c r="N70" s="65"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" ht="14.4">
       <c r="A71" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D71" s="65"/>
       <c r="E71" s="65"/>
@@ -8432,12 +8432,12 @@
       <c r="M71" s="65"/>
       <c r="N71" s="65"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" ht="14.4">
       <c r="A72" s="65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" s="65"/>
@@ -8451,12 +8451,12 @@
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" ht="14.4">
       <c r="A73" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="B73" s="65" t="s">
         <v>519</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>520</v>
       </c>
       <c r="D73" s="65"/>
       <c r="E73" s="65"/>
@@ -8470,12 +8470,12 @@
       <c r="M73" s="65"/>
       <c r="N73" s="65"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" ht="14.4">
       <c r="A74" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="B74" s="65" t="s">
         <v>521</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>522</v>
       </c>
       <c r="D74" s="65"/>
       <c r="E74" s="65"/>
@@ -8489,12 +8489,12 @@
       <c r="M74" s="65"/>
       <c r="N74" s="65"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" ht="14.4">
       <c r="A75" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75" s="65" t="s">
         <v>523</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>524</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="65"/>
@@ -8508,12 +8508,12 @@
       <c r="M75" s="65"/>
       <c r="N75" s="65"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="14.4">
       <c r="A76" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B76" s="65" t="s">
         <v>525</v>
-      </c>
-      <c r="B76" s="65" t="s">
-        <v>526</v>
       </c>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
@@ -8527,12 +8527,12 @@
       <c r="M76" s="65"/>
       <c r="N76" s="65"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" ht="14.4">
       <c r="A77" s="65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B77" s="65" t="s">
         <v>527</v>
-      </c>
-      <c r="B77" s="65" t="s">
-        <v>528</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="65"/>
@@ -8546,12 +8546,12 @@
       <c r="M77" s="65"/>
       <c r="N77" s="65"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" ht="14.4">
       <c r="A78" s="65" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="65" t="s">
         <v>532</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>533</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" s="65"/>
@@ -8565,12 +8565,12 @@
       <c r="M78" s="65"/>
       <c r="N78" s="65"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" ht="14.4">
       <c r="A79" s="65" t="s">
+        <v>535</v>
+      </c>
+      <c r="B79" s="65" t="s">
         <v>536</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>537</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="65"/>
@@ -8584,12 +8584,12 @@
       <c r="M79" s="65"/>
       <c r="N79" s="65"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" ht="14.4">
       <c r="A80" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="65"/>
@@ -8603,12 +8603,12 @@
       <c r="M80" s="65"/>
       <c r="N80" s="65"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" ht="14.4">
       <c r="A81" s="65" t="s">
+        <v>544</v>
+      </c>
+      <c r="B81" s="65" t="s">
         <v>545</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>546</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" s="65"/>
@@ -8622,12 +8622,12 @@
       <c r="M81" s="65"/>
       <c r="N81" s="65"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" ht="14.4">
       <c r="A82" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" s="65"/>
@@ -8641,12 +8641,12 @@
       <c r="M82" s="65"/>
       <c r="N82" s="65"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" ht="14.4">
       <c r="A83" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="B83" s="65" t="s">
         <v>547</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>548</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" s="65"/>
@@ -8660,12 +8660,12 @@
       <c r="M83" s="65"/>
       <c r="N83" s="65"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" ht="14.4">
       <c r="A84" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" s="65" t="s">
         <v>549</v>
-      </c>
-      <c r="B84" s="65" t="s">
-        <v>550</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" s="65"/>
@@ -8679,12 +8679,12 @@
       <c r="M84" s="65"/>
       <c r="N84" s="65"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" ht="14.4">
       <c r="A85" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B85" s="65" t="s">
         <v>551</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>552</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" s="65"/>
@@ -8698,12 +8698,12 @@
       <c r="M85" s="65"/>
       <c r="N85" s="65"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" ht="14.4">
       <c r="A86" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="B86" s="65" t="s">
         <v>554</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>555</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" s="65"/>
@@ -8717,37 +8717,37 @@
       <c r="M86" s="65"/>
       <c r="N86" s="65"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" ht="14.4">
       <c r="A87" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D87" s="69"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" ht="14.4">
       <c r="A88" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="B88" s="69" t="s">
         <v>568</v>
       </c>
-      <c r="B88" s="69" t="s">
-        <v>569</v>
-      </c>
       <c r="D88" s="69"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" ht="14.4">
       <c r="D89" s="69"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" ht="14.4">
       <c r="D90" s="69"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" ht="14.4">
       <c r="D91" s="69"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" ht="14.4">
       <c r="D92" s="69"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" ht="14.4">
       <c r="D93" s="69"/>
     </row>
   </sheetData>
@@ -8773,18 +8773,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" customWidth="1"/>
     <col min="5" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.296875" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="90" t="s">
         <v>18</v>
       </c>
@@ -8798,9 +8798,9 @@
       </c>
       <c r="I1" s="90"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>12</v>
@@ -8819,7 +8819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8827,10 +8827,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="46" t="s">
@@ -8840,7 +8840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8848,10 +8848,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="48" t="s">
@@ -8861,7 +8861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32">
+    <row r="5" spans="1:9" ht="27.6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8869,10 +8869,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="50" t="s">
@@ -8882,7 +8882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" thickBot="1">
+    <row r="6" spans="1:9" ht="28.2" thickBot="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8890,10 +8890,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="51" t="s">
@@ -8911,10 +8911,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8925,10 +8925,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8939,10 +8939,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8953,10 +8953,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8967,10 +8967,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8981,10 +8981,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8995,10 +8995,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9009,10 +9009,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9023,10 +9023,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9037,10 +9037,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -9061,46 +9061,46 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="12"/>
-    <col min="10" max="10" width="41.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="12"/>
-    <col min="13" max="13" width="31.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="12"/>
+    <col min="10" max="10" width="41.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="12"/>
+    <col min="13" max="13" width="31.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" style="12" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="12"/>
+    <col min="17" max="17" width="36.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.69921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.5" customHeight="1" thickBot="1">
-      <c r="B1" s="122" t="s">
+    <row r="1" spans="2:17" ht="15.45" customHeight="1" thickBot="1">
+      <c r="B1" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="123"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="79"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
-      <c r="M1" s="124" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="M1" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-    </row>
-    <row r="2" spans="2:17" ht="16">
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+    </row>
+    <row r="2" spans="2:17" ht="15.6">
       <c r="B2" s="30" t="s">
         <v>58</v>
       </c>
@@ -9112,14 +9112,14 @@
       <c r="H2" s="33"/>
       <c r="J2" s="30"/>
       <c r="K2" s="33"/>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-    </row>
-    <row r="3" spans="2:17" ht="16">
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.6">
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
       <c r="J3" s="34"/>
@@ -9137,7 +9137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="69" thickBot="1">
+    <row r="4" spans="2:17" ht="47.4" thickBot="1">
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="41"/>
@@ -9152,57 +9152,57 @@
         <v>154</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="41"/>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="O5" s="98" t="s">
+      <c r="N5" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="O5" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="P5" s="105" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
-      <c r="M6" s="102"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="106"/>
-    </row>
-    <row r="7" spans="2:17" ht="14" customHeight="1">
-      <c r="B7" s="122" t="s">
+      <c r="P5" s="107" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
+      <c r="M6" s="116"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="108"/>
+    </row>
+    <row r="7" spans="2:17" ht="13.95" customHeight="1">
+      <c r="B7" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="79"/>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="98"/>
+      <c r="J7" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="107"/>
-    </row>
-    <row r="8" spans="2:17" ht="51">
+      <c r="K7" s="98"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="133"/>
+    </row>
+    <row r="8" spans="2:17" ht="46.8">
       <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
@@ -9232,28 +9232,28 @@
         <v>156</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="51">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="46.8">
       <c r="B9" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D9" s="41"/>
       <c r="G9" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M9" s="29" t="s">
         <v>89</v>
@@ -9262,13 +9262,13 @@
         <v>90</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="69" thickBot="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="63" thickBot="1">
       <c r="B10" s="34" t="s">
         <v>67</v>
       </c>
@@ -9278,28 +9278,28 @@
         <v>77</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="M10" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="132" t="s">
+      <c r="O10" s="114" t="s">
         <v>157</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="32">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="27.6">
       <c r="B11" s="34" t="s">
         <v>68</v>
       </c>
@@ -9311,14 +9311,14 @@
         <v>81</v>
       </c>
       <c r="K11" s="77" t="s">
-        <v>438</v>
-      </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="133"/>
+        <v>437</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="32"/>
     </row>
-    <row r="12" spans="2:17" ht="14" customHeight="1">
+    <row r="12" spans="2:17" ht="13.95" customHeight="1">
       <c r="B12" s="34" t="s">
         <v>69</v>
       </c>
@@ -9328,49 +9328,49 @@
         <v>82</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="M12" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="P12" s="105" t="s">
-        <v>347</v>
+      <c r="P12" s="107" t="s">
+        <v>346</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
       <c r="B13" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D13" s="41"/>
       <c r="J13" s="34" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="106"/>
+        <v>297</v>
+      </c>
+      <c r="M13" s="116"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="108"/>
       <c r="Q13" s="75" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="14" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="13.95" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C14" s="12">
         <v>4968</v>
@@ -9379,50 +9379,50 @@
         <v>84</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="106"/>
+        <v>352</v>
+      </c>
+      <c r="M14" s="116"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="108"/>
       <c r="Q14" s="75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="14" customHeight="1" thickBot="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="13.95" customHeight="1" thickBot="1">
       <c r="B15" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>566</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>567</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="131"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="75" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="14.4" thickBot="1">
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1">
-      <c r="M17" s="125" t="s">
+    <row r="17" spans="1:16" ht="16.2" thickBot="1">
+      <c r="M17" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-    </row>
-    <row r="18" spans="1:16" ht="16">
-      <c r="G18" s="122" t="s">
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.6">
+      <c r="G18" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="123"/>
+      <c r="H18" s="98"/>
       <c r="M18" s="58" t="s">
         <v>28</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="G19" s="30" t="s">
         <v>72</v>
       </c>
@@ -9450,40 +9450,40 @@
       <c r="O19" s="61"/>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" ht="33" thickBot="1">
+    <row r="20" spans="1:16" ht="28.2" thickBot="1">
       <c r="G20" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="114"/>
-    </row>
-    <row r="21" spans="1:16" ht="14" customHeight="1">
-      <c r="M21" s="109"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="115"/>
-    </row>
-    <row r="22" spans="1:16" ht="14" customHeight="1">
-      <c r="M22" s="110"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="116"/>
-    </row>
-    <row r="23" spans="1:16" ht="16">
-      <c r="A23" s="97" t="s">
-        <v>593</v>
-      </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="120"/>
+    </row>
+    <row r="21" spans="1:16" ht="13.95" customHeight="1">
+      <c r="M21" s="129"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="121"/>
+    </row>
+    <row r="22" spans="1:16" ht="13.95" customHeight="1">
+      <c r="M22" s="124"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="134"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.6">
+      <c r="A23" s="100" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="81"/>
       <c r="M23" s="60" t="s">
         <v>88</v>
@@ -9492,9 +9492,9 @@
       <c r="O23" s="61"/>
       <c r="P23" s="63"/>
     </row>
-    <row r="24" spans="1:16" ht="16">
+    <row r="24" spans="1:16" ht="15.6">
       <c r="A24" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>60</v>
@@ -9517,36 +9517,36 @@
       <c r="O24" s="61"/>
       <c r="P24" s="63"/>
     </row>
-    <row r="25" spans="1:16" ht="16">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C25" s="41">
         <v>1.2</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="M25" s="108" t="s">
+      <c r="M25" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="111" t="s">
+      <c r="N25" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="62"/>
     </row>
-    <row r="26" spans="1:16" ht="14" customHeight="1">
+    <row r="26" spans="1:16" ht="13.95" customHeight="1">
       <c r="A26" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C26" s="41">
         <v>1.7</v>
@@ -9555,20 +9555,20 @@
         <v>8</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F26" s="80"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="119"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="128"/>
       <c r="P26" s="64"/>
     </row>
-    <row r="27" spans="1:16" ht="14" customHeight="1">
+    <row r="27" spans="1:16" ht="13.95" customHeight="1">
       <c r="A27" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" s="41">
         <v>1.7</v>
@@ -9577,24 +9577,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F27" s="80"/>
-      <c r="M27" s="108" t="s">
+      <c r="M27" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="N27" s="111" t="s">
+      <c r="N27" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="O27" s="111"/>
-      <c r="P27" s="114"/>
-    </row>
-    <row r="28" spans="1:16" ht="14" customHeight="1">
+      <c r="O27" s="125"/>
+      <c r="P27" s="120"/>
+    </row>
+    <row r="28" spans="1:16" ht="13.95" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C28" s="41">
         <v>1.7</v>
@@ -9603,20 +9603,20 @@
         <v>8</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F28" s="80"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="115"/>
-    </row>
-    <row r="29" spans="1:16" ht="14" customHeight="1">
+      <c r="M28" s="129"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="121"/>
+    </row>
+    <row r="29" spans="1:16" ht="13.95" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C29" s="41">
         <v>1.7</v>
@@ -9625,20 +9625,20 @@
         <v>8</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F29" s="80"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="115"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+      <c r="M29" s="129"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="121"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.55" customHeight="1" thickBot="1">
       <c r="A30" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C30" s="41">
         <v>1.7</v>
@@ -9647,55 +9647,55 @@
         <v>8</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F30" s="80"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="117"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="122"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C31" s="41">
         <v>1.036</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C32" s="41">
         <v>1.0369999999999999</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="82">
@@ -9703,9 +9703,9 @@
       </c>
       <c r="F33" s="78"/>
     </row>
-    <row r="34" spans="1:6" ht="16">
+    <row r="34" spans="1:6" ht="27.6">
       <c r="A34" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>76</v>
@@ -9713,12 +9713,12 @@
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
       <c r="E34" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.95" customHeight="1">
       <c r="A35" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B35" s="80" t="s">
         <v>77</v>
@@ -9726,12 +9726,12 @@
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14" customHeight="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.95" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>79</v>
@@ -9739,12 +9739,12 @@
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.95" customHeight="1">
       <c r="A37" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>80</v>
@@ -9752,38 +9752,38 @@
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="E38" s="80" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>82</v>
@@ -9791,12 +9791,12 @@
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>83</v>
@@ -9804,12 +9804,12 @@
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.95" customHeight="1">
       <c r="A42" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>84</v>
@@ -9817,12 +9817,12 @@
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14" customHeight="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.95" customHeight="1">
       <c r="A43" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B43" s="41" t="s">
         <v>66</v>
@@ -9830,12 +9830,12 @@
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.95" customHeight="1">
       <c r="A44" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>68</v>
@@ -9846,9 +9846,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" customHeight="1">
+    <row r="45" spans="1:6" ht="14.55" customHeight="1">
       <c r="A45" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>69</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>70</v>
@@ -9867,19 +9867,19 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E47" s="41">
         <v>4968</v>
@@ -9887,6 +9887,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M1:P1"/>
@@ -9903,23 +9920,6 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9934,17 +9934,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9957,24 +9957,24 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
@@ -9991,7 +9991,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>99</v>
@@ -10011,15 +10011,15 @@
         <v>97</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F4" s="85" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23.5" customHeight="1">
+    <row r="5" spans="1:6" ht="23.55" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>100</v>
@@ -10031,7 +10031,7 @@
         <v>400072</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>99</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B6" s="85" t="s">
         <v>101</v>
@@ -10051,7 +10051,7 @@
         <v>400491</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>99</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B7" s="85" t="s">
         <v>102</v>
@@ -10068,10 +10068,10 @@
         <v>90</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>99</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B8" s="85" t="s">
         <v>102</v>
@@ -10088,10 +10088,10 @@
         <v>90</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>99</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="85" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B9" s="85" t="s">
         <v>103</v>
@@ -10111,7 +10111,7 @@
         <v>313040</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>99</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>104</v>
@@ -10131,7 +10131,7 @@
         <v>391833</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>99</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="85" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C11" s="85">
         <v>12.2</v>
@@ -10151,7 +10151,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>99</v>
@@ -10162,7 +10162,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C12" s="85">
         <v>204</v>
@@ -10171,7 +10171,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F12" s="85" t="s">
         <v>99</v>
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C13" s="85">
         <v>203</v>
@@ -10191,7 +10191,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F13" s="85" t="s">
         <v>99</v>
@@ -10210,59 +10210,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F18C10-3B09-4F79-A233-78195B26116A}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="97" t="s">
+      <c r="B1" s="100"/>
+      <c r="D1" s="100" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="G1" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="J1" s="100" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="G1" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="97"/>
-      <c r="J1" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="97"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
+      <c r="K1" s="100"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>648</v>
-      </c>
       <c r="D2" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>631</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>28</v>
@@ -10271,18 +10271,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="65" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>416</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>417</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>116</v>
@@ -10294,7 +10294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="65" t="s">
         <v>111</v>
       </c>
@@ -10302,10 +10302,10 @@
         <v>450634109</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="65" t="s">
         <v>112</v>
       </c>
@@ -10322,13 +10322,13 @@
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="78" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="65" t="s">
         <v>113</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="65" t="s">
         <v>111</v>
       </c>
@@ -10352,7 +10352,7 @@
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="14.4">
       <c r="A8" s="65" t="s">
         <v>111</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="14.4">
       <c r="A9" s="65" t="s">
         <v>111</v>
       </c>
@@ -10378,7 +10378,7 @@
       <c r="G9" s="65"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="14.4">
       <c r="A10" s="65" t="s">
         <v>111</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="G10" s="65"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="14.4">
       <c r="A11" s="78"/>
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
@@ -10399,7 +10399,7 @@
       <c r="G11" s="65"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="14.4">
       <c r="A12" s="78"/>
       <c r="C12" s="78"/>
       <c r="D12" s="65"/>
@@ -10408,7 +10408,7 @@
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="14.4">
       <c r="A13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="65"/>
@@ -10417,7 +10417,7 @@
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.4">
       <c r="A14" s="78"/>
       <c r="D14" s="65"/>
       <c r="E14" s="65"/>
@@ -10425,7 +10425,7 @@
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.4">
       <c r="A15" s="78"/>
       <c r="B15" s="65"/>
       <c r="D15" s="65"/>
@@ -10434,7 +10434,7 @@
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.4">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -10444,7 +10444,7 @@
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -10454,7 +10454,7 @@
       <c r="G17" s="65"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -10464,7 +10464,7 @@
       <c r="G18" s="65"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -10474,7 +10474,7 @@
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -10484,7 +10484,7 @@
       <c r="G20" s="65"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="14.4">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -10494,7 +10494,7 @@
       <c r="G21" s="65"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="14.4">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -10504,7 +10504,7 @@
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="14.4">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -10514,7 +10514,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="14.4">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -10524,7 +10524,7 @@
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="14.4">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -10534,21 +10534,21 @@
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="14.4">
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="14.4">
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="14.4">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
@@ -10558,7 +10558,7 @@
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="14.4">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -10568,7 +10568,7 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="14.4">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -10578,7 +10578,7 @@
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="14.4">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -10588,7 +10588,7 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="14.4">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
@@ -10598,7 +10598,7 @@
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="14.4">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -10608,7 +10608,7 @@
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="14.4">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -10618,7 +10618,7 @@
       <c r="G34" s="65"/>
       <c r="H34" s="65"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="14.4">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
@@ -10628,7 +10628,7 @@
       <c r="G35" s="65"/>
       <c r="H35" s="65"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="14.4">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -10658,37 +10658,37 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.296875" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.25" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+    <row r="1" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A1" s="100" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
       <c r="N1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>58</v>
@@ -10697,36 +10697,36 @@
         <v>61</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>638</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>639</v>
-      </c>
       <c r="G2" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>635</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>636</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="32">
+    <row r="3" spans="1:14" ht="27.6">
       <c r="A3" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G3" t="s">
         <v>131</v>
@@ -10735,18 +10735,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="32">
+    <row r="4" spans="1:14" ht="27.6">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G4" t="s">
         <v>130</v>
@@ -10755,13 +10755,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" customHeight="1"/>
-    <row r="11" spans="1:14" ht="15.5" customHeight="1"/>
-    <row r="16" spans="1:14" ht="15.5" customHeight="1"/>
-    <row r="21" ht="15.5" customHeight="1"/>
-    <row r="25" ht="15.5" customHeight="1"/>
-    <row r="29" ht="15.5" customHeight="1"/>
-    <row r="33" ht="15.5" customHeight="1"/>
+    <row r="8" spans="1:14" ht="15.45" customHeight="1"/>
+    <row r="11" spans="1:14" ht="15.45" customHeight="1"/>
+    <row r="16" spans="1:14" ht="15.45" customHeight="1"/>
+    <row r="21" ht="15.45" customHeight="1"/>
+    <row r="25" ht="15.45" customHeight="1"/>
+    <row r="29" ht="15.45" customHeight="1"/>
+    <row r="33" ht="15.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -10778,19 +10778,19 @@
       <selection activeCell="C36" sqref="A1:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" customHeight="1">
+    <row r="1" spans="1:2" ht="15.45" customHeight="1">
       <c r="A1" s="135" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="136"/>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="55" t="s">
         <v>30</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="55" t="s">
         <v>134</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="55" t="s">
         <v>136</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="55" t="s">
         <v>137</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="55" t="s">
         <v>139</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="55" t="s">
         <v>140</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16">
+    <row r="8" spans="1:2" ht="15.6">
       <c r="A8" s="55" t="s">
         <v>142</v>
       </c>
@@ -10916,13 +10916,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:2" ht="15.5" customHeight="1">
+    <row r="22" spans="1:2" ht="15.45" customHeight="1">
       <c r="A22" s="137" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="138"/>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="57" t="s">
         <v>30</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="57" t="s">
         <v>134</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="15.6">
       <c r="A25" s="57" t="s">
         <v>136</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16">
+    <row r="26" spans="1:2" ht="15.6">
       <c r="A26" s="57" t="s">
         <v>137</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:2" ht="15.6">
       <c r="A27" s="57" t="s">
         <v>139</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:2" ht="15.6">
       <c r="A28" s="57" t="s">
         <v>140</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:2" ht="15.6">
       <c r="A29" s="57" t="s">
         <v>142</v>
       </c>

--- a/bin/Equipment Traceability.xlsx
+++ b/bin/Equipment Traceability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyonai\Documents\GitHub\Baseline-Check\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16E2C35-EF6D-4500-BB3F-FAE7A098B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68BC494-3D16-4E9B-8E82-9C53411DF0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31488" yWindow="768" windowWidth="23040" windowHeight="12312" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,6 @@
     <t>D-1348-05-S</t>
   </si>
   <si>
-    <t>SOUNDSTAR eco SMS 8F Catheter</t>
-  </si>
-  <si>
     <t>M-5723-17</t>
   </si>
   <si>
@@ -2047,6 +2044,9 @@
   </si>
   <si>
     <t>Main FW Version</t>
+  </si>
+  <si>
+    <t>SoundStar Eco 8 Fr</t>
   </si>
 </sst>
 </file>
@@ -2946,6 +2946,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2955,9 +3030,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,89 +3048,17 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>593</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>594</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>596</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>597</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>3</v>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>4</v>
@@ -3535,10 +3535,10 @@
         <v>206</v>
       </c>
       <c r="F4" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>598</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>599</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>207</v>
@@ -3593,13 +3593,13 @@
         <v>229</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F6" s="66" t="s">
         <v>231</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="72" t="s">
@@ -3729,19 +3729,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="66" t="s">
+      <c r="F11" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="H11" s="66" t="s">
         <v>308</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>309</v>
       </c>
       <c r="I11" s="66"/>
       <c r="J11" s="72" t="s">
@@ -3756,19 +3756,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D12" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="F12" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="66" t="s">
+      <c r="H12" s="66" t="s">
         <v>311</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>312</v>
       </c>
       <c r="I12" s="66"/>
       <c r="J12" s="72" t="s">
@@ -3777,25 +3777,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" s="66">
         <v>4</v>
       </c>
       <c r="C13" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>332</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>333</v>
       </c>
       <c r="F13" s="66">
         <v>12101290</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I13" s="66"/>
       <c r="J13" s="72" t="s">
@@ -3810,19 +3810,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="66" t="s">
+      <c r="F14" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="H14" s="66" t="s">
         <v>350</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>351</v>
       </c>
       <c r="I14" s="66">
         <v>44375</v>
@@ -3839,187 +3839,187 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="D15" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="H15" s="66" t="s">
         <v>356</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>357</v>
       </c>
       <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="66">
         <v>4</v>
       </c>
       <c r="C16" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="F16" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="H16" s="66" t="s">
         <v>362</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>363</v>
       </c>
       <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B17" s="66">
         <v>4</v>
       </c>
       <c r="C17" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="F17" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="H17" s="66" t="s">
         <v>380</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>381</v>
       </c>
       <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="66">
         <v>4</v>
       </c>
       <c r="C18" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="E18" s="66" t="s">
+      <c r="F18" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="66" t="s">
-        <v>387</v>
-      </c>
       <c r="H18" s="66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" s="66">
         <v>4</v>
       </c>
       <c r="C19" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>554</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>555</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>393</v>
-      </c>
       <c r="H19" s="66" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="66">
         <v>4</v>
       </c>
       <c r="C20" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="E20" s="66" t="s">
+      <c r="F20" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="H20" s="66" t="s">
         <v>402</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>403</v>
       </c>
       <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B21" s="66">
         <v>4</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21" s="66">
         <v>1095</v>
       </c>
       <c r="F21" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="H21" s="66" t="s">
         <v>430</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>431</v>
       </c>
       <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="66">
         <v>4</v>
       </c>
       <c r="C22" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="66" t="s">
         <v>461</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>460</v>
-      </c>
-      <c r="E22" s="66" t="s">
+      <c r="F22" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="H22" s="66" t="s">
         <v>463</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>464</v>
       </c>
       <c r="I22" s="66"/>
     </row>
@@ -4031,43 +4031,43 @@
         <v>4</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E23" s="66">
         <v>8408</v>
       </c>
       <c r="F23" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="H23" s="66" t="s">
         <v>487</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>488</v>
       </c>
       <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" s="66">
         <v>4</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E24" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" s="66" t="s">
         <v>493</v>
       </c>
-      <c r="F24" s="66" t="s">
-        <v>494</v>
-      </c>
       <c r="H24" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -4082,31 +4082,31 @@
         <v>4357</v>
       </c>
       <c r="D25" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="E25" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="F25" s="66" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="H25" s="66" t="s">
         <v>498</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>499</v>
       </c>
       <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B26" s="66">
         <v>2</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -4115,25 +4115,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B27" s="66">
         <v>4</v>
       </c>
       <c r="C27" s="66" t="s">
+        <v>539</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="E27" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="D27" s="66" t="s">
-        <v>539</v>
-      </c>
-      <c r="E27" s="66" t="s">
+      <c r="F27" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="H27" s="66" t="s">
         <v>542</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>543</v>
       </c>
       <c r="I27" s="66"/>
     </row>
@@ -4148,16 +4148,16 @@
         <v>230</v>
       </c>
       <c r="D28" s="66" t="s">
+        <v>556</v>
+      </c>
+      <c r="E28" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="F28" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="H28" s="66" t="s">
         <v>559</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>560</v>
       </c>
       <c r="I28" s="66"/>
     </row>
@@ -4276,7 +4276,7 @@
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
       <c r="M41" s="88" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
@@ -4291,7 +4291,7 @@
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="M42" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4303,7 +4303,7 @@
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
       <c r="M43" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N43" s="66" t="s">
         <v>233</v>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="P43" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q43" s="66"/>
     </row>
@@ -4520,7 +4520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11CB3CA-4693-489E-913F-95221AF8CC71}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4541,25 +4541,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="40" t="s">
@@ -4572,13 +4572,13 @@
         <v>58</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>168</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="4" spans="1:17" ht="14.4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>180</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="5" spans="1:17" ht="14.4">
       <c r="A5" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>180</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="6" spans="1:17" ht="14.4">
       <c r="A6" s="65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>180</v>
@@ -4843,18 +4843,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="F1" s="100" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="F1" s="97" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="40" t="s">
@@ -4873,13 +4873,13 @@
         <v>86</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>513</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4">
@@ -4896,7 +4896,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G3" s="65">
         <v>222</v>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4957,13 +4957,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -4975,7 +4975,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -5004,10 +5004,10 @@
         <v>36</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4">
@@ -5030,10 +5030,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4">
@@ -5056,10 +5056,10 @@
         <v>36</v>
       </c>
       <c r="G5" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
@@ -5082,10 +5082,10 @@
         <v>41</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4">
@@ -5108,10 +5108,10 @@
         <v>36</v>
       </c>
       <c r="G7" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H7" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4">
@@ -5134,10 +5134,10 @@
         <v>36</v>
       </c>
       <c r="G8" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H8" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4">
@@ -5160,10 +5160,10 @@
         <v>36</v>
       </c>
       <c r="G9" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4">
@@ -5186,10 +5186,10 @@
         <v>36</v>
       </c>
       <c r="G10" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4">
@@ -5212,10 +5212,10 @@
         <v>36</v>
       </c>
       <c r="G11" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4">
@@ -5223,7 +5223,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>209</v>
@@ -5238,10 +5238,10 @@
         <v>36</v>
       </c>
       <c r="G12" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4">
@@ -5264,10 +5264,10 @@
         <v>36</v>
       </c>
       <c r="G13" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H13" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4">
@@ -5290,10 +5290,10 @@
         <v>36</v>
       </c>
       <c r="G14" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4">
@@ -5316,10 +5316,10 @@
         <v>36</v>
       </c>
       <c r="G15" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4">
@@ -5342,10 +5342,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.4">
@@ -5353,7 +5353,7 @@
         <v>236</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>209</v>
@@ -5368,10 +5368,10 @@
         <v>36</v>
       </c>
       <c r="G17" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H17" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="14.4">
@@ -5394,10 +5394,10 @@
         <v>36</v>
       </c>
       <c r="G18" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H18" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.4">
@@ -5420,10 +5420,10 @@
         <v>36</v>
       </c>
       <c r="G19" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H19" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.4">
@@ -5431,7 +5431,7 @@
         <v>236</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>209</v>
@@ -5446,10 +5446,10 @@
         <v>36</v>
       </c>
       <c r="G20" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H20" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H20" s="65" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="14.4">
@@ -5472,10 +5472,10 @@
         <v>36</v>
       </c>
       <c r="G21" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H21" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W21" s="90"/>
       <c r="X21" s="90"/>
@@ -5507,10 +5507,10 @@
         <v>36</v>
       </c>
       <c r="G22" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H22" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H22" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5542,10 +5542,10 @@
         <v>36</v>
       </c>
       <c r="G23" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H23" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W23" s="15"/>
       <c r="X23" s="7"/>
@@ -5577,10 +5577,10 @@
         <v>36</v>
       </c>
       <c r="G24" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H24" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="7"/>
@@ -5597,7 +5597,7 @@
         <v>236</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="65" t="s">
         <v>209</v>
@@ -5612,10 +5612,10 @@
         <v>36</v>
       </c>
       <c r="G25" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W25" s="15"/>
       <c r="X25" s="7"/>
@@ -5632,7 +5632,7 @@
         <v>236</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C26" s="65" t="s">
         <v>209</v>
@@ -5647,10 +5647,10 @@
         <v>36</v>
       </c>
       <c r="G26" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H26" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -5682,10 +5682,10 @@
         <v>36</v>
       </c>
       <c r="G27" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H27" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W27" s="15"/>
       <c r="X27" s="7"/>
@@ -5717,10 +5717,10 @@
         <v>36</v>
       </c>
       <c r="G28" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H28" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W28" s="15"/>
       <c r="X28" s="7"/>
@@ -5737,7 +5737,7 @@
         <v>236</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>209</v>
@@ -5752,10 +5752,10 @@
         <v>36</v>
       </c>
       <c r="G29" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H29" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="7"/>
@@ -5787,10 +5787,10 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H30" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="7"/>
@@ -5807,7 +5807,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>209</v>
@@ -5822,10 +5822,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H31" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W31" s="15"/>
       <c r="X31" s="7"/>
@@ -5857,10 +5857,10 @@
         <v>36</v>
       </c>
       <c r="G32" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H32" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="7"/>
@@ -5892,10 +5892,10 @@
         <v>36</v>
       </c>
       <c r="G33" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H33" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W33" s="15"/>
       <c r="X33" s="7"/>
@@ -5912,7 +5912,7 @@
         <v>236</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C34" s="65" t="s">
         <v>209</v>
@@ -5927,10 +5927,10 @@
         <v>36</v>
       </c>
       <c r="G34" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H34" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="7"/>
@@ -5962,10 +5962,10 @@
         <v>36</v>
       </c>
       <c r="G35" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H35" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H35" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W35" s="15"/>
       <c r="X35" s="7"/>
@@ -5997,10 +5997,10 @@
         <v>36</v>
       </c>
       <c r="G36" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H36" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W36" s="15"/>
       <c r="X36" s="7"/>
@@ -6032,10 +6032,10 @@
         <v>36</v>
       </c>
       <c r="G37" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W37" s="15"/>
       <c r="X37" s="7"/>
@@ -6067,10 +6067,10 @@
         <v>36</v>
       </c>
       <c r="G38" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H38" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="7"/>
@@ -6102,10 +6102,10 @@
         <v>36</v>
       </c>
       <c r="G39" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H39" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H39" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="7"/>
@@ -6137,10 +6137,10 @@
         <v>36</v>
       </c>
       <c r="G40" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H40" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W40" s="15"/>
       <c r="X40" s="7"/>
@@ -6163,7 +6163,7 @@
         <v>209</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E41" s="65" t="s">
         <v>165</v>
@@ -6172,10 +6172,10 @@
         <v>36</v>
       </c>
       <c r="G41" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H41" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H41" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W41" s="15"/>
       <c r="X41" s="7"/>
@@ -6201,10 +6201,10 @@
         <v>35</v>
       </c>
       <c r="G42" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="H42" s="65" t="s">
         <v>603</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>604</v>
       </c>
       <c r="W42" s="15"/>
       <c r="X42" s="7"/>
@@ -6955,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CB55D7-300B-4128-A2CE-F732E60316C7}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -6982,11 +6982,11 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1" s="90"/>
       <c r="D1" s="90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E1" s="90"/>
       <c r="G1" s="90" t="s">
@@ -7006,13 +7006,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>61</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="3" spans="1:16" ht="14.4">
       <c r="A3" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>314</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>220</v>
@@ -7050,13 +7050,13 @@
         <v>219</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>327</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>328</v>
       </c>
       <c r="K3" s="65" t="s">
         <v>267</v>
@@ -7085,13 +7085,13 @@
         <v>202</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>270</v>
@@ -7120,13 +7120,13 @@
         <v>203</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="8" spans="1:16" ht="14.4">
       <c r="A8" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>321</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>322</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>218</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="9" spans="1:16" ht="14.4">
       <c r="A9" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>261</v>
@@ -7220,10 +7220,10 @@
         <v>212</v>
       </c>
       <c r="D10" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>303</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>304</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="11" spans="1:16" ht="14.4">
       <c r="A11" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>315</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>316</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>201</v>
@@ -7412,7 +7412,7 @@
         <v>218</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
@@ -7424,16 +7424,16 @@
     </row>
     <row r="20" spans="1:14" ht="14.4">
       <c r="A20" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>319</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>320</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
@@ -7451,10 +7451,10 @@
         <v>211</v>
       </c>
       <c r="D21" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E21" s="65" t="s">
         <v>372</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>373</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
@@ -7472,10 +7472,10 @@
         <v>251</v>
       </c>
       <c r="D22" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" s="65" t="s">
         <v>374</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>375</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="65"/>
@@ -7493,10 +7493,10 @@
         <v>300</v>
       </c>
       <c r="D23" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>422</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>423</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
@@ -7514,10 +7514,10 @@
         <v>213</v>
       </c>
       <c r="D24" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" s="65" t="s">
         <v>424</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>425</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="65"/>
@@ -7529,16 +7529,16 @@
     </row>
     <row r="25" spans="1:14" ht="14.4">
       <c r="A25" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="65" t="s">
-        <v>325</v>
-      </c>
       <c r="D25" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
@@ -7556,10 +7556,10 @@
         <v>200</v>
       </c>
       <c r="D26" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="65" t="s">
         <v>457</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>458</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
@@ -7577,10 +7577,10 @@
         <v>198</v>
       </c>
       <c r="D27" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="E27" s="65" t="s">
         <v>483</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>484</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="65"/>
@@ -7598,10 +7598,10 @@
         <v>278</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
@@ -7613,16 +7613,16 @@
     </row>
     <row r="29" spans="1:14" ht="14.4">
       <c r="A29" s="65" t="s">
+        <v>660</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>302</v>
-      </c>
       <c r="D29" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>457</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>458</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
@@ -7634,16 +7634,16 @@
     </row>
     <row r="30" spans="1:14" ht="14.4">
       <c r="A30" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>569</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>570</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
@@ -7655,10 +7655,10 @@
     </row>
     <row r="31" spans="1:14" ht="14.4">
       <c r="A31" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>368</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>369</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="32" spans="1:14" ht="14.4">
       <c r="A32" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" s="65" t="s">
         <v>370</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>371</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
@@ -7715,7 +7715,7 @@
         <v>196</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
@@ -7731,10 +7731,10 @@
     </row>
     <row r="35" spans="1:14" ht="14.4">
       <c r="A35" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" s="65" t="s">
         <v>407</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>408</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
@@ -7750,10 +7750,10 @@
     </row>
     <row r="36" spans="1:14" ht="14.4">
       <c r="A36" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>409</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>410</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -7769,10 +7769,10 @@
     </row>
     <row r="37" spans="1:14" ht="14.4">
       <c r="A37" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B37" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>412</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="38" spans="1:14" ht="14.4">
       <c r="A38" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>211</v>
@@ -7807,10 +7807,10 @@
     </row>
     <row r="39" spans="1:14" ht="14.4">
       <c r="A39" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>417</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>418</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="65"/>
@@ -7826,10 +7826,10 @@
     </row>
     <row r="40" spans="1:14" ht="14.4">
       <c r="A40" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="65" t="s">
         <v>419</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>420</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="65"/>
@@ -7848,7 +7848,7 @@
         <v>214</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D41" s="65"/>
       <c r="E41" s="65"/>
@@ -7864,10 +7864,10 @@
     </row>
     <row r="42" spans="1:14" ht="14.4">
       <c r="A42" s="65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="65"/>
@@ -7883,10 +7883,10 @@
     </row>
     <row r="43" spans="1:14" ht="14.4">
       <c r="A43" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="65" t="s">
         <v>432</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>433</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" s="65"/>
@@ -7902,10 +7902,10 @@
     </row>
     <row r="44" spans="1:14" ht="14.4">
       <c r="A44" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" s="65" t="s">
         <v>439</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>440</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="65"/>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="45" spans="1:14" ht="14.4">
       <c r="A45" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="B45" s="65" t="s">
         <v>441</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>442</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="65"/>
@@ -7940,10 +7940,10 @@
     </row>
     <row r="46" spans="1:14" ht="14.4">
       <c r="A46" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="B46" s="65" t="s">
         <v>443</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>444</v>
       </c>
       <c r="D46" s="65"/>
       <c r="E46" s="65"/>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="47" spans="1:14" ht="14.4">
       <c r="A47" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" s="65" t="s">
         <v>445</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>446</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" s="65"/>
@@ -7978,10 +7978,10 @@
     </row>
     <row r="48" spans="1:14" ht="14.4">
       <c r="A48" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="65" t="s">
         <v>449</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>450</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" s="65"/>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="49" spans="1:14" ht="14.4">
       <c r="A49" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="65" t="s">
         <v>451</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>452</v>
       </c>
       <c r="D49" s="65"/>
       <c r="E49" s="65"/>
@@ -8016,10 +8016,10 @@
     </row>
     <row r="50" spans="1:14" ht="14.4">
       <c r="A50" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" s="65" t="s">
         <v>453</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>454</v>
       </c>
       <c r="D50" s="65"/>
       <c r="E50" s="65"/>
@@ -8035,10 +8035,10 @@
     </row>
     <row r="51" spans="1:14" ht="14.4">
       <c r="A51" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="65" t="s">
         <v>455</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>456</v>
       </c>
       <c r="D51" s="65"/>
       <c r="E51" s="65"/>
@@ -8054,10 +8054,10 @@
     </row>
     <row r="52" spans="1:14" ht="14.4">
       <c r="A52" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="B52" s="65" t="s">
         <v>465</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>466</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" s="65"/>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="54" spans="1:14" ht="14.4">
       <c r="A54" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="B54" s="65" t="s">
         <v>467</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>468</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" s="65"/>
@@ -8130,10 +8130,10 @@
     </row>
     <row r="56" spans="1:14" ht="14.4">
       <c r="A56" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="65" t="s">
         <v>469</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>470</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8149,10 +8149,10 @@
     </row>
     <row r="57" spans="1:14" ht="14.4">
       <c r="A57" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>465</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>466</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="65"/>
@@ -8168,10 +8168,10 @@
     </row>
     <row r="58" spans="1:14" ht="14.4">
       <c r="A58" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="65" t="s">
         <v>471</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>472</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="59" spans="1:14" ht="14.4">
       <c r="A59" s="65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" s="65"/>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="60" spans="1:14" ht="14.4">
       <c r="A60" s="65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B60" s="65" t="s">
         <v>211</v>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="61" spans="1:14" ht="14.4">
       <c r="A61" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="B61" s="65" t="s">
         <v>476</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>477</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="65"/>
@@ -8263,10 +8263,10 @@
     </row>
     <row r="63" spans="1:14" ht="14.4">
       <c r="A63" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="B63" s="65" t="s">
         <v>478</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>479</v>
       </c>
       <c r="D63" s="65"/>
       <c r="E63" s="65"/>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="64" spans="1:14" ht="14.4">
       <c r="A64" s="65" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>249</v>
@@ -8301,10 +8301,10 @@
     </row>
     <row r="65" spans="1:14" ht="14.4">
       <c r="A65" s="65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D65" s="65"/>
       <c r="E65" s="65"/>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="66" spans="1:14" ht="14.4">
       <c r="A66" s="65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="65"/>
@@ -8339,10 +8339,10 @@
     </row>
     <row r="67" spans="1:14" ht="14.4">
       <c r="A67" s="65" t="s">
+        <v>488</v>
+      </c>
+      <c r="B67" s="65" t="s">
         <v>489</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>490</v>
       </c>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="68" spans="1:14" ht="14.4">
       <c r="A68" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="B68" s="65" t="s">
         <v>503</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>504</v>
       </c>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="69" spans="1:14" ht="14.4">
       <c r="A69" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D69" s="65"/>
       <c r="E69" s="65"/>
@@ -8396,10 +8396,10 @@
     </row>
     <row r="70" spans="1:14" ht="14.4">
       <c r="A70" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70" s="65" t="s">
         <v>506</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>507</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" s="65"/>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="71" spans="1:14" ht="14.4">
       <c r="A71" s="65" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D71" s="65"/>
       <c r="E71" s="65"/>
@@ -8434,10 +8434,10 @@
     </row>
     <row r="72" spans="1:14" ht="14.4">
       <c r="A72" s="65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" s="65"/>
@@ -8453,10 +8453,10 @@
     </row>
     <row r="73" spans="1:14" ht="14.4">
       <c r="A73" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="B73" s="65" t="s">
         <v>518</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>519</v>
       </c>
       <c r="D73" s="65"/>
       <c r="E73" s="65"/>
@@ -8472,10 +8472,10 @@
     </row>
     <row r="74" spans="1:14" ht="14.4">
       <c r="A74" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="65" t="s">
         <v>520</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>521</v>
       </c>
       <c r="D74" s="65"/>
       <c r="E74" s="65"/>
@@ -8491,10 +8491,10 @@
     </row>
     <row r="75" spans="1:14" ht="14.4">
       <c r="A75" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" s="65" t="s">
         <v>522</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>523</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="65"/>
@@ -8510,10 +8510,10 @@
     </row>
     <row r="76" spans="1:14" ht="14.4">
       <c r="A76" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="B76" s="65" t="s">
         <v>524</v>
-      </c>
-      <c r="B76" s="65" t="s">
-        <v>525</v>
       </c>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="77" spans="1:14" ht="14.4">
       <c r="A77" s="65" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" s="65" t="s">
         <v>526</v>
-      </c>
-      <c r="B77" s="65" t="s">
-        <v>527</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="65"/>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="78" spans="1:14" ht="14.4">
       <c r="A78" s="65" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" s="65" t="s">
         <v>531</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>532</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" s="65"/>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="79" spans="1:14" ht="14.4">
       <c r="A79" s="65" t="s">
+        <v>534</v>
+      </c>
+      <c r="B79" s="65" t="s">
         <v>535</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>536</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="65"/>
@@ -8589,7 +8589,7 @@
         <v>199</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="65"/>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="81" spans="1:14" ht="14.4">
       <c r="A81" s="65" t="s">
+        <v>543</v>
+      </c>
+      <c r="B81" s="65" t="s">
         <v>544</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>545</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" s="65"/>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="83" spans="1:14" ht="14.4">
       <c r="A83" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="B83" s="65" t="s">
         <v>546</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>547</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" s="65"/>
@@ -8662,10 +8662,10 @@
     </row>
     <row r="84" spans="1:14" ht="14.4">
       <c r="A84" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="B84" s="65" t="s">
         <v>548</v>
-      </c>
-      <c r="B84" s="65" t="s">
-        <v>549</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" s="65"/>
@@ -8681,10 +8681,10 @@
     </row>
     <row r="85" spans="1:14" ht="14.4">
       <c r="A85" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="B85" s="65" t="s">
         <v>550</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>551</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" s="65"/>
@@ -8700,10 +8700,10 @@
     </row>
     <row r="86" spans="1:14" ht="14.4">
       <c r="A86" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="B86" s="65" t="s">
         <v>553</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>554</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" s="65"/>
@@ -8722,16 +8722,16 @@
         <v>199</v>
       </c>
       <c r="B87" s="69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D87" s="69"/>
     </row>
     <row r="88" spans="1:14" ht="14.4">
       <c r="A88" s="65" t="s">
+        <v>566</v>
+      </c>
+      <c r="B88" s="69" t="s">
         <v>567</v>
-      </c>
-      <c r="B88" s="69" t="s">
-        <v>568</v>
       </c>
       <c r="D88" s="69"/>
     </row>
@@ -8827,10 +8827,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="46" t="s">
@@ -8848,10 +8848,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="48" t="s">
@@ -8869,10 +8869,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="50" t="s">
@@ -8890,10 +8890,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="51" t="s">
@@ -8911,10 +8911,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8925,10 +8925,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8939,10 +8939,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8953,10 +8953,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8967,10 +8967,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8981,10 +8981,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8995,10 +8995,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9009,10 +9009,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9023,10 +9023,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9037,10 +9037,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -9084,21 +9084,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.45" customHeight="1" thickBot="1">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="98"/>
+      <c r="C1" s="123"/>
       <c r="D1" s="79"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="123"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="M1" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="2:17" ht="15.6">
       <c r="B2" s="30" t="s">
@@ -9112,12 +9112,12 @@
       <c r="H2" s="33"/>
       <c r="J2" s="30"/>
       <c r="K2" s="33"/>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="2:17" ht="15.6">
       <c r="G3" s="34"/>
@@ -9152,10 +9152,10 @@
         <v>154</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
@@ -9164,43 +9164,43 @@
       <c r="D5" s="41"/>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="O5" s="112" t="s">
+      <c r="N5" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="O5" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="P5" s="107" t="s">
-        <v>448</v>
+      <c r="P5" s="105" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
-      <c r="M6" s="116"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="108"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" spans="2:17" ht="13.95" customHeight="1">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="79"/>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="J7" s="97" t="s">
+      <c r="H7" s="123"/>
+      <c r="J7" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="98"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="133"/>
+      <c r="K7" s="123"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="107"/>
     </row>
     <row r="8" spans="2:17" ht="46.8">
       <c r="B8" s="30" t="s">
@@ -9232,7 +9232,7 @@
         <v>156</v>
       </c>
       <c r="P8" s="76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="46.8">
@@ -9240,7 +9240,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D9" s="41"/>
       <c r="G9" s="38" t="s">
@@ -9262,10 +9262,10 @@
         <v>90</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P9" s="76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="63" thickBot="1">
@@ -9278,7 +9278,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>80</v>
@@ -9286,17 +9286,17 @@
       <c r="K10" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="112" t="s">
+      <c r="N10" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="114" t="s">
+      <c r="O10" s="132" t="s">
         <v>157</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="27.6">
@@ -9311,11 +9311,11 @@
         <v>81</v>
       </c>
       <c r="K11" s="77" t="s">
-        <v>437</v>
-      </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="115"/>
+        <v>436</v>
+      </c>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="133"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="2:17" ht="13.95" customHeight="1">
@@ -9330,20 +9330,20 @@
       <c r="K12" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="112" t="s">
+      <c r="N12" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="112" t="s">
+      <c r="O12" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="P12" s="107" t="s">
-        <v>346</v>
+      <c r="P12" s="105" t="s">
+        <v>345</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="14.55" customHeight="1" thickBot="1">
@@ -9351,7 +9351,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D13" s="41"/>
       <c r="J13" s="34" t="s">
@@ -9360,17 +9360,17 @@
       <c r="K13" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="M13" s="116"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="108"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="106"/>
       <c r="Q13" s="75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="13.95" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C14" s="12">
         <v>4968</v>
@@ -9379,31 +9379,31 @@
         <v>84</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="M14" s="116"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="108"/>
+        <v>351</v>
+      </c>
+      <c r="M14" s="102"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="13.95" customHeight="1" thickBot="1">
       <c r="B15" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>566</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="109"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="131"/>
       <c r="Q15" s="75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="14.4" thickBot="1">
@@ -9411,18 +9411,18 @@
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="16.2" thickBot="1">
-      <c r="M17" s="101" t="s">
+      <c r="M17" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
     </row>
     <row r="18" spans="1:16" ht="15.6">
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="98"/>
+      <c r="H18" s="123"/>
       <c r="M18" s="58" t="s">
         <v>28</v>
       </c>
@@ -9457,33 +9457,33 @@
       <c r="H20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="120"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="114"/>
     </row>
     <row r="21" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M21" s="129"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="121"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="115"/>
     </row>
     <row r="22" spans="1:16" ht="13.95" customHeight="1">
-      <c r="M22" s="124"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="134"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="116"/>
     </row>
     <row r="23" spans="1:16" ht="15.6">
-      <c r="A23" s="100" t="s">
-        <v>592</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="A23" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="81"/>
       <c r="M23" s="60" t="s">
         <v>88</v>
@@ -9519,34 +9519,34 @@
     </row>
     <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C25" s="41">
         <v>1.2</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F25" s="41"/>
-      <c r="M25" s="123" t="s">
+      <c r="M25" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="125" t="s">
+      <c r="N25" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" ht="13.95" customHeight="1">
       <c r="A26" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C26" s="41">
         <v>1.7</v>
@@ -9555,20 +9555,20 @@
         <v>8</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F26" s="80"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="128"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="64"/>
     </row>
     <row r="27" spans="1:16" ht="13.95" customHeight="1">
       <c r="A27" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C27" s="41">
         <v>1.7</v>
@@ -9577,24 +9577,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F27" s="80"/>
-      <c r="M27" s="123" t="s">
+      <c r="M27" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="O27" s="125"/>
-      <c r="P27" s="120"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="114"/>
     </row>
     <row r="28" spans="1:16" ht="13.95" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C28" s="41">
         <v>1.7</v>
@@ -9603,20 +9603,20 @@
         <v>8</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F28" s="80"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="121"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="115"/>
     </row>
     <row r="29" spans="1:16" ht="13.95" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C29" s="41">
         <v>1.7</v>
@@ -9625,20 +9625,20 @@
         <v>8</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F29" s="80"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="121"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="115"/>
     </row>
     <row r="30" spans="1:16" ht="14.55" customHeight="1" thickBot="1">
       <c r="A30" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C30" s="41">
         <v>1.7</v>
@@ -9647,20 +9647,20 @@
         <v>8</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F30" s="80"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="122"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="117"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C31" s="41">
         <v>1.036</v>
@@ -9673,29 +9673,29 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C32" s="41">
         <v>1.0369999999999999</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="82">
@@ -9705,7 +9705,7 @@
     </row>
     <row r="34" spans="1:6" ht="27.6">
       <c r="A34" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>76</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="35" spans="1:6" ht="13.95" customHeight="1">
       <c r="A35" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B35" s="80" t="s">
         <v>77</v>
@@ -9726,12 +9726,12 @@
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.95" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>79</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1">
       <c r="A37" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>80</v>
@@ -9757,33 +9757,33 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="E38" s="80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>82</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>83</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="42" spans="1:6" ht="13.95" customHeight="1">
       <c r="A42" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>84</v>
@@ -9817,12 +9817,12 @@
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1">
       <c r="A43" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B43" s="41" t="s">
         <v>66</v>
@@ -9830,12 +9830,12 @@
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1">
       <c r="A44" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>68</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.55" customHeight="1">
       <c r="A45" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>69</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>70</v>
@@ -9867,19 +9867,19 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E47" s="41">
         <v>4968</v>
@@ -9887,23 +9887,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M1:P1"/>
@@ -9920,6 +9903,23 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9962,19 +9962,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
@@ -9991,7 +9991,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>99</v>
@@ -10011,7 +10011,7 @@
         <v>97</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F4" s="85" t="s">
         <v>99</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="5" spans="1:6" ht="23.55" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>100</v>
@@ -10031,7 +10031,7 @@
         <v>400072</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>99</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B6" s="85" t="s">
         <v>101</v>
@@ -10051,7 +10051,7 @@
         <v>400491</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>99</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B7" s="85" t="s">
         <v>102</v>
@@ -10068,10 +10068,10 @@
         <v>90</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>99</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B8" s="85" t="s">
         <v>102</v>
@@ -10088,10 +10088,10 @@
         <v>90</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>99</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B9" s="85" t="s">
         <v>103</v>
@@ -10111,7 +10111,7 @@
         <v>313040</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F9" s="85" t="s">
         <v>99</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>104</v>
@@ -10131,7 +10131,7 @@
         <v>391833</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>99</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="85" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" s="85">
         <v>12.2</v>
@@ -10151,7 +10151,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>99</v>
@@ -10162,7 +10162,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C12" s="85">
         <v>204</v>
@@ -10171,7 +10171,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F12" s="85" t="s">
         <v>99</v>
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C13" s="85">
         <v>203</v>
@@ -10191,7 +10191,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" s="85" t="s">
         <v>99</v>
@@ -10228,41 +10228,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="D1" s="100" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="G1" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="97"/>
+      <c r="J1" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="G1" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="100"/>
-      <c r="J1" s="100" t="s">
-        <v>578</v>
-      </c>
-      <c r="K1" s="100"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>647</v>
-      </c>
       <c r="D2" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>630</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>28</v>
@@ -10276,13 +10276,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D3" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>415</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>416</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>116</v>
@@ -10302,10 +10302,10 @@
         <v>450634109</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
@@ -10322,10 +10322,10 @@
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>405</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4">
@@ -10673,22 +10673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="A1" s="97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>58</v>
@@ -10697,19 +10697,19 @@
         <v>61</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>638</v>
-      </c>
       <c r="G2" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>634</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>635</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>128</v>
@@ -10720,13 +10720,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G3" t="s">
         <v>131</v>
@@ -10740,13 +10740,13 @@
         <v>129</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G4" t="s">
         <v>130</v>
